--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A19AD4-4BA6-4E8F-972C-4D78B6C3C85C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2460" windowWidth="16245" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="2460" windowWidth="16245" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,12 +104,24 @@
     <t>RNN, TS=8, lr=0.08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +175,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -206,6 +232,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,16 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -504,7 +541,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +551,7 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
       <c r="E2">
@@ -541,7 +578,7 @@
       <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>2</v>
       </c>
       <c r="N2">
@@ -553,7 +590,7 @@
       <c r="P2">
         <v>3</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="9">
         <v>3</v>
       </c>
       <c r="R2">
@@ -568,8 +605,17 @@
       <c r="U2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="12">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -579,7 +625,7 @@
       <c r="C3">
         <v>512</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>512</v>
       </c>
       <c r="E3">
@@ -606,7 +652,7 @@
       <c r="L3">
         <v>256</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>768</v>
       </c>
       <c r="N3">
@@ -618,7 +664,7 @@
       <c r="P3">
         <v>512</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="9">
         <v>768</v>
       </c>
       <c r="R3">
@@ -633,73 +679,91 @@
       <c r="U3">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C4">
-        <v>0.9</v>
-      </c>
-      <c r="D4">
-        <v>0.9</v>
-      </c>
-      <c r="E4">
-        <v>0.9</v>
-      </c>
-      <c r="F4">
-        <v>0.9</v>
-      </c>
-      <c r="G4">
-        <v>0.9</v>
-      </c>
-      <c r="H4">
-        <v>0.9</v>
-      </c>
-      <c r="I4">
+      <c r="V3" s="12">
+        <v>512</v>
+      </c>
+      <c r="W3">
+        <v>768</v>
+      </c>
+      <c r="X3" s="12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4">
-        <v>0.9</v>
-      </c>
-      <c r="L4">
-        <v>0.9</v>
-      </c>
-      <c r="M4">
-        <v>0.9</v>
-      </c>
-      <c r="N4">
-        <v>0.9</v>
-      </c>
-      <c r="O4">
-        <v>0.9</v>
-      </c>
-      <c r="P4">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="R4">
-        <v>0.9</v>
-      </c>
-      <c r="S4">
+      <c r="K4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="1">
         <v>0.5</v>
       </c>
-      <c r="T4">
-        <v>0.9</v>
-      </c>
-      <c r="U4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -709,7 +773,7 @@
       <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>0.1</v>
       </c>
       <c r="E5">
@@ -736,7 +800,7 @@
       <c r="L5">
         <v>0.1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.1</v>
       </c>
       <c r="N5">
@@ -748,7 +812,7 @@
       <c r="P5">
         <v>0.1</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="9">
         <v>0.1</v>
       </c>
       <c r="R5">
@@ -763,19 +827,32 @@
       <c r="U5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
+      <c r="D6" s="12"/>
       <c r="H6" s="1"/>
+      <c r="M6" s="3"/>
       <c r="P6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9"/>
+      <c r="V6" s="14"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -785,7 +862,7 @@
       <c r="C7">
         <v>6.9514999999999993E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>6.9417000000000006E-2</v>
       </c>
       <c r="E7">
@@ -812,7 +889,7 @@
       <c r="L7">
         <v>6.9918999999999995E-2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>6.8779999999999994E-2</v>
       </c>
       <c r="N7">
@@ -824,7 +901,7 @@
       <c r="P7">
         <v>6.9284999999999999E-2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="9">
         <v>6.8786E-2</v>
       </c>
       <c r="R7">
@@ -839,8 +916,15 @@
       <c r="U7">
         <v>6.9154999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="14"/>
+      <c r="W7">
+        <v>7.1096000000000006E-2</v>
+      </c>
+      <c r="X7" s="12">
+        <v>7.0394999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -850,7 +934,7 @@
       <c r="C8">
         <v>18.907599999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>18.878799999999998</v>
       </c>
       <c r="E8">
@@ -877,7 +961,7 @@
       <c r="L8">
         <v>19.206499999999998</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>18.794499999999999</v>
       </c>
       <c r="N8">
@@ -889,7 +973,7 @@
       <c r="P8">
         <v>18.9146</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="9">
         <v>18.791899999999998</v>
       </c>
       <c r="R8">
@@ -904,8 +988,15 @@
       <c r="U8">
         <v>18.8673</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="14"/>
+      <c r="W8">
+        <v>19.6236</v>
+      </c>
+      <c r="X8" s="12">
+        <v>19.447199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -915,7 +1006,7 @@
       <c r="C9">
         <v>27.515799999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>27.484400000000001</v>
       </c>
       <c r="E9">
@@ -942,7 +1033,7 @@
       <c r="L9">
         <v>27.814299999999999</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>27.422799999999999</v>
       </c>
       <c r="N9">
@@ -954,7 +1045,7 @@
       <c r="P9">
         <v>27.562000000000001</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="9">
         <v>27.423100000000002</v>
       </c>
       <c r="R9">
@@ -969,8 +1060,15 @@
       <c r="U9">
         <v>27.499199999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="14"/>
+      <c r="W9">
+        <v>28.3401</v>
+      </c>
+      <c r="X9" s="12">
+        <v>28.0532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -980,7 +1078,7 @@
       <c r="C10">
         <v>1734.4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>2468.09</v>
       </c>
       <c r="E10">
@@ -1007,7 +1105,7 @@
       <c r="L10">
         <v>2974.2683999999999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>3494.82</v>
       </c>
       <c r="N10">
@@ -1019,7 +1117,7 @@
       <c r="P10">
         <v>4417</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="9">
         <v>4698.0200000000004</v>
       </c>
       <c r="R10">
@@ -1034,16 +1132,23 @@
       <c r="U10">
         <v>1365.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="14"/>
+      <c r="W10">
+        <v>2917.98</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1594.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1157,7 @@
       <c r="D13" s="10"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1062,10 +1167,10 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14">
@@ -1074,9 +1179,18 @@
       <c r="G14">
         <v>2</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2</v>
+      </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1086,10 +1200,10 @@
       <c r="C15">
         <v>256</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>768</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>768</v>
       </c>
       <c r="F15">
@@ -1098,31 +1212,49 @@
       <c r="G15">
         <v>1024</v>
       </c>
+      <c r="H15">
+        <v>512</v>
+      </c>
+      <c r="I15" s="12">
+        <v>256</v>
+      </c>
+      <c r="J15" s="12">
+        <v>512</v>
+      </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C16">
-        <v>0.9</v>
-      </c>
-      <c r="D16">
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <v>0.9</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
-      <c r="G16">
-        <v>0.9</v>
-      </c>
-      <c r="Q16" s="3"/>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1134,16 +1266,25 @@
       <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="12">
         <v>0.1</v>
       </c>
       <c r="Q17" s="3"/>
@@ -1152,6 +1293,10 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="3"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -1164,10 +1309,10 @@
       <c r="C19">
         <v>6.9580000000000003E-2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="12">
         <v>6.9284999999999999E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>6.8722000000000005E-2</v>
       </c>
       <c r="F19">
@@ -1176,6 +1321,11 @@
       <c r="G19">
         <v>6.9006999999999999E-2</v>
       </c>
+      <c r="H19">
+        <v>7.5628000000000001E-2</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -1188,10 +1338,10 @@
       <c r="C20">
         <v>19.1831</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="12">
         <v>19.127800000000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>18.8338</v>
       </c>
       <c r="F20">
@@ -1200,6 +1350,11 @@
       <c r="G20">
         <v>18.8551</v>
       </c>
+      <c r="H20">
+        <v>21.4802</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -1212,10 +1367,10 @@
       <c r="C21">
         <v>27.755299999999998</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="12">
         <v>27.662299999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>27.418700000000001</v>
       </c>
       <c r="F21">
@@ -1224,6 +1379,11 @@
       <c r="G21">
         <v>27.425799999999999</v>
       </c>
+      <c r="H21">
+        <v>31.0322</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1235,10 +1395,10 @@
       <c r="C22">
         <v>1820.68</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="12">
         <v>5254.24</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>3852.42</v>
       </c>
       <c r="F22">
@@ -1247,6 +1407,11 @@
       <c r="G22">
         <v>5374.95</v>
       </c>
+      <c r="H22">
+        <v>3692.52</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
@@ -1279,16 +1444,16 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
         <v>2</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="12">
         <v>3</v>
       </c>
       <c r="J26">
@@ -1315,7 +1480,7 @@
       <c r="Q26">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="12">
         <v>2</v>
       </c>
       <c r="S26" s="4">
@@ -1365,16 +1530,16 @@
       <c r="E27">
         <v>512</v>
       </c>
-      <c r="F27">
-        <v>512</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="12">
+        <v>512</v>
+      </c>
+      <c r="G27" s="12">
         <v>256</v>
       </c>
       <c r="H27">
         <v>512</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="12">
         <v>512</v>
       </c>
       <c r="J27">
@@ -1401,7 +1566,7 @@
       <c r="Q27">
         <v>512</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="12">
         <v>768</v>
       </c>
       <c r="S27" s="4">
@@ -1451,16 +1616,16 @@
       <c r="E28">
         <v>0.9</v>
       </c>
-      <c r="F28">
-        <v>0.9</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="12">
         <v>0.9</v>
       </c>
       <c r="H28">
         <v>0.9</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1487,7 +1652,7 @@
       <c r="Q28">
         <v>0.9</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="12">
         <v>0.9</v>
       </c>
       <c r="S28" s="4">
@@ -1537,16 +1702,16 @@
       <c r="E29">
         <v>0.3</v>
       </c>
-      <c r="F29">
-        <v>0.1</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="12">
         <v>0.1</v>
       </c>
       <c r="H29">
         <v>0.1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="14">
         <v>0.3</v>
       </c>
       <c r="J29">
@@ -1573,7 +1738,7 @@
       <c r="Q29">
         <v>1</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="12">
         <v>0.1</v>
       </c>
       <c r="S29" s="4">
@@ -1612,6 +1777,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
         <v>12</v>
@@ -1634,16 +1803,16 @@
       <c r="E31">
         <v>6.9939000000000001E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>7.0357000000000003E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>7.1128999999999998E-2</v>
       </c>
       <c r="H31">
         <v>7.0646E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="14">
         <v>7.0998000000000006E-2</v>
       </c>
       <c r="J31">
@@ -1670,7 +1839,7 @@
       <c r="Q31">
         <v>7.1260000000000004E-2</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="12">
         <v>6.9926000000000002E-2</v>
       </c>
       <c r="S31" s="4">
@@ -1720,16 +1889,16 @@
       <c r="E32">
         <v>19.050599999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="12">
         <v>19.157299999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <v>19.4436</v>
       </c>
       <c r="H32">
         <v>19.160599999999999</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="14">
         <v>19.727499999999999</v>
       </c>
       <c r="J32">
@@ -1756,7 +1925,7 @@
       <c r="Q32">
         <v>19.433199999999999</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="12">
         <v>19.000800000000002</v>
       </c>
       <c r="S32" s="4">
@@ -1806,16 +1975,16 @@
       <c r="E33">
         <v>27.564800000000002</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <v>27.5351</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <v>27.930599999999998</v>
       </c>
       <c r="H33">
         <v>27.6569</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="14">
         <v>28.5564</v>
       </c>
       <c r="J33">
@@ -1842,7 +2011,7 @@
       <c r="Q33">
         <v>28.1007</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="12">
         <v>27.533100000000001</v>
       </c>
       <c r="S33" s="4">
@@ -1892,16 +2061,16 @@
       <c r="E34">
         <v>3051.29</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="12">
         <v>3250.49</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>2864.91</v>
       </c>
       <c r="H34">
         <v>5843.4404000000004</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="14">
         <v>4399.2323999999999</v>
       </c>
       <c r="J34">
@@ -1928,7 +2097,7 @@
       <c r="Q34">
         <v>4644.46</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="12">
         <v>4340.53</v>
       </c>
       <c r="S34" s="4">
@@ -1977,16 +2146,16 @@
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="12">
+        <v>2</v>
+      </c>
+      <c r="D38" s="12">
         <v>2</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="12">
         <v>3</v>
       </c>
       <c r="G38">
@@ -2040,7 +2209,7 @@
       <c r="W38">
         <v>2</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="12">
         <v>2</v>
       </c>
       <c r="Y38">
@@ -2060,16 +2229,16 @@
       <c r="B39">
         <v>512</v>
       </c>
-      <c r="C39">
-        <v>512</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="12">
+        <v>512</v>
+      </c>
+      <c r="D39" s="12">
         <v>256</v>
       </c>
       <c r="E39">
         <v>256</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>768</v>
       </c>
       <c r="G39">
@@ -2123,7 +2292,7 @@
       <c r="W39">
         <v>768</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="12">
         <v>768</v>
       </c>
       <c r="Y39">
@@ -2143,16 +2312,16 @@
       <c r="B40">
         <v>0.9</v>
       </c>
-      <c r="C40">
-        <v>0.9</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.9</v>
       </c>
       <c r="E40">
         <v>0.9</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="12">
         <v>0.9</v>
       </c>
       <c r="G40">
@@ -2206,7 +2375,7 @@
       <c r="W40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="12">
         <v>0.9</v>
       </c>
       <c r="Y40">
@@ -2226,16 +2395,16 @@
       <c r="B41">
         <v>0.1</v>
       </c>
-      <c r="C41">
-        <v>0.1</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.1</v>
       </c>
       <c r="E41">
         <v>0.1</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="12">
         <v>0.1</v>
       </c>
       <c r="G41">
@@ -2289,7 +2458,7 @@
       <c r="W41">
         <v>0.3</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="12">
         <v>0.1</v>
       </c>
       <c r="Y41">
@@ -2306,9 +2475,13 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="L42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="5"/>
+      <c r="X42" s="12"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2317,16 +2490,16 @@
       <c r="B43">
         <v>6.9750999999999994E-2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="12">
         <v>6.9780999999999996E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="12">
         <v>7.0494000000000001E-2</v>
       </c>
       <c r="E43">
         <v>7.016E-2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <v>6.9306000000000006E-2</v>
       </c>
       <c r="G43">
@@ -2380,7 +2553,7 @@
       <c r="W43" s="7">
         <v>6.9467000000000001E-2</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="12">
         <v>6.9472999999999993E-2</v>
       </c>
       <c r="Y43" s="7">
@@ -2400,16 +2573,16 @@
       <c r="B44">
         <v>18.932099999999998</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="12">
         <v>18.9345</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="12">
         <v>19.127300000000002</v>
       </c>
       <c r="E44">
         <v>19.075700000000001</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="12">
         <v>18.9651</v>
       </c>
       <c r="G44">
@@ -2463,7 +2636,7 @@
       <c r="W44" s="7">
         <v>18.949400000000001</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="12">
         <v>18.887799999999999</v>
       </c>
       <c r="Y44" s="7">
@@ -2483,16 +2656,16 @@
       <c r="B45">
         <v>27.686900000000001</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="12">
         <v>27.6877</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="12">
         <v>27.899000000000001</v>
       </c>
       <c r="E45">
         <v>27.852399999999999</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="12">
         <v>27.7087</v>
       </c>
       <c r="G45">
@@ -2546,7 +2719,7 @@
       <c r="W45" s="7">
         <v>27.6905</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="12">
         <v>27.640699999999999</v>
       </c>
       <c r="Y45" s="7">
@@ -2566,16 +2739,16 @@
       <c r="B46">
         <v>2288.98</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="12">
         <v>1656.75</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="12">
         <v>1415.74</v>
       </c>
       <c r="E46">
         <v>1984.09</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="12">
         <v>3061.82</v>
       </c>
       <c r="G46">
@@ -2629,7 +2802,7 @@
       <c r="W46" s="7">
         <v>2158.81</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="12">
         <v>2120.0100000000002</v>
       </c>
       <c r="Y46" s="7">
@@ -2657,13 +2830,13 @@
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="12">
         <v>2</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="12">
         <v>2</v>
       </c>
       <c r="F50">
@@ -2696,7 +2869,7 @@
       <c r="O50">
         <v>2</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2707,13 +2880,13 @@
       <c r="B51">
         <v>512</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="12">
         <v>512</v>
       </c>
       <c r="D51">
         <v>256</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="12">
         <v>256</v>
       </c>
       <c r="F51">
@@ -2746,7 +2919,7 @@
       <c r="O51">
         <v>256</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="12">
         <v>768</v>
       </c>
     </row>
@@ -2757,13 +2930,13 @@
       <c r="B52">
         <v>0.9</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="12">
         <v>0.9</v>
       </c>
       <c r="D52">
         <v>0.9</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="12">
         <v>0.9</v>
       </c>
       <c r="F52">
@@ -2796,57 +2969,57 @@
       <c r="O52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P52">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>0.1</v>
-      </c>
-      <c r="C53">
-        <v>0.1</v>
-      </c>
-      <c r="D53">
-        <v>0.1</v>
-      </c>
-      <c r="E53">
-        <v>0.1</v>
-      </c>
-      <c r="F53">
+      <c r="P52" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="1">
         <v>0.3</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="8">
         <v>0.3</v>
       </c>
-      <c r="H53">
-        <v>0.1</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="1">
         <v>0.3</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>0.3</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="1">
         <v>0.5</v>
       </c>
-      <c r="M53">
-        <v>0.1</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="M53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="15">
         <v>0.3</v>
       </c>
-      <c r="O53">
-        <v>0.1</v>
-      </c>
-      <c r="P53">
+      <c r="O53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P53" s="13">
         <v>0.1</v>
       </c>
     </row>
@@ -2854,8 +3027,11 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
+      <c r="C54" s="12"/>
+      <c r="E54" s="12"/>
       <c r="G54" s="7"/>
       <c r="N54" s="5"/>
+      <c r="P54" s="12"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2864,13 +3040,13 @@
       <c r="B55">
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="12">
         <v>7.2250999999999996E-2</v>
       </c>
       <c r="D55">
         <v>7.2447999999999999E-2</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="12">
         <v>7.2246000000000005E-2</v>
       </c>
       <c r="F55">
@@ -2903,7 +3079,7 @@
       <c r="O55">
         <v>7.2182999999999997E-2</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="12">
         <v>7.2567999999999994E-2</v>
       </c>
     </row>
@@ -2914,13 +3090,13 @@
       <c r="B56">
         <v>19.5105</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="12">
         <v>19.475300000000001</v>
       </c>
       <c r="D56">
         <v>19.5717</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="12">
         <v>19.5778</v>
       </c>
       <c r="F56">
@@ -2953,7 +3129,7 @@
       <c r="O56">
         <v>19.441400000000002</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="12">
         <v>19.480799999999999</v>
       </c>
     </row>
@@ -2964,13 +3140,13 @@
       <c r="B57">
         <v>28.526900000000001</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="12">
         <v>28.5017</v>
       </c>
       <c r="D57">
         <v>28.6112</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="12">
         <v>28.632999999999999</v>
       </c>
       <c r="F57">
@@ -3003,7 +3179,7 @@
       <c r="O57">
         <v>28.394100000000002</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="12">
         <v>28.4924</v>
       </c>
     </row>
@@ -3014,13 +3190,13 @@
       <c r="B58">
         <v>1575.41</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="12">
         <v>1173.9100000000001</v>
       </c>
       <c r="D58">
         <v>1324.1</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="12">
         <v>1099.83</v>
       </c>
       <c r="F58">
@@ -3053,7 +3229,7 @@
       <c r="O58">
         <v>1125.46</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="12">
         <v>1075.78</v>
       </c>
     </row>
@@ -3078,7 +3254,7 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="12">
         <v>2</v>
       </c>
       <c r="F62">
@@ -3105,11 +3281,14 @@
       <c r="M62">
         <v>3</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="12">
         <v>2</v>
       </c>
       <c r="O62">
         <v>3</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3125,7 +3304,7 @@
       <c r="D63">
         <v>256</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="12">
         <v>256</v>
       </c>
       <c r="F63">
@@ -3152,30 +3331,33 @@
       <c r="M63">
         <v>512</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="12">
         <v>768</v>
       </c>
       <c r="O63">
         <v>768</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>0.9</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D64">
-        <v>0.9</v>
-      </c>
-      <c r="E64">
-        <v>0.9</v>
-      </c>
-      <c r="F64">
+      <c r="P63">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F64" s="1">
         <v>0.9</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3184,29 +3366,32 @@
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I64">
-        <v>0.9</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K64">
-        <v>0.9</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="K64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M64">
-        <v>0.9</v>
-      </c>
-      <c r="N64">
-        <v>0.9</v>
-      </c>
-      <c r="O64">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N64" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3219,7 +3404,7 @@
       <c r="D65">
         <v>0.1</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="12">
         <v>0.1</v>
       </c>
       <c r="F65">
@@ -3234,32 +3419,37 @@
       <c r="I65">
         <v>0.1</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>0.3</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M65">
         <v>0.3</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="12">
         <v>0.1</v>
       </c>
       <c r="O65">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E66" s="12"/>
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3462,7 @@
       <c r="D67">
         <v>6.9095000000000004E-2</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="12">
         <v>6.9365999999999997E-2</v>
       </c>
       <c r="F67">
@@ -3299,14 +3489,14 @@
       <c r="M67">
         <v>6.8640999999999994E-2</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="12">
         <v>6.8594000000000002E-2</v>
       </c>
       <c r="O67">
         <v>6.8491999999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3509,7 @@
       <c r="D68">
         <v>19.060700000000001</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="12">
         <v>19.1035</v>
       </c>
       <c r="F68">
@@ -3346,14 +3536,14 @@
       <c r="M68">
         <v>18.868200000000002</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="12">
         <v>18.8079</v>
       </c>
       <c r="O68">
         <v>18.7912</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3366,7 +3556,7 @@
       <c r="D69">
         <v>27.816400000000002</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="12">
         <v>27.771999999999998</v>
       </c>
       <c r="F69">
@@ -3393,14 +3583,14 @@
       <c r="M69">
         <v>27.574200000000001</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="12">
         <v>27.5289</v>
       </c>
       <c r="O69">
         <v>27.497299999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3603,7 @@
       <c r="D70">
         <v>2604.08</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="12">
         <v>1774.01</v>
       </c>
       <c r="F70">
@@ -3440,14 +3630,14 @@
       <c r="M70">
         <v>3041.16</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="12">
         <v>2563.67</v>
       </c>
       <c r="O70">
         <v>3992.84</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>20</v>
       </c>
@@ -3455,44 +3645,68 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="3">
         <v>768</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>768</v>
+      </c>
+      <c r="D75">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>0.9</v>
+      </c>
+      <c r="D76">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>0.1</v>
+      </c>
+      <c r="D77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3714,7 @@
         <v>8.7160000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>

--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926C24B-6D7B-49B5-95AC-C8DC63D33E16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE491E53-3FF3-4E0A-A155-CE78F859888B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
     <t>LSTM, TS=11, lr=0.08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -258,10 +266,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,21 +559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -641,29 +658,77 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="9">
+        <v>6.9434999999999997E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.8449999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.8529000000000007E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.8790000000000004E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="1">
+        <v>19.084199999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18.845600000000001</v>
+      </c>
+      <c r="D8">
+        <v>18.829699999999999</v>
+      </c>
+      <c r="E8">
+        <v>18.8964</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="9">
+        <v>27.790700000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>27.552199999999999</v>
+      </c>
+      <c r="D9">
+        <v>27.517299999999999</v>
+      </c>
+      <c r="E9">
+        <v>27.535900000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="1">
+        <v>2343.2600000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2707.86</v>
+      </c>
+      <c r="D10">
+        <v>2527.61</v>
+      </c>
+      <c r="E10">
+        <v>2862.41</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1309,12 +1374,12 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -1407,28 +1472,72 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>6.9401000000000004E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.9386000000000003E-2</v>
+      </c>
+      <c r="D31">
+        <v>6.9122000000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.8816000000000002E-2</v>
+      </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9">
+        <v>19.075500000000002</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18.982399999999998</v>
+      </c>
+      <c r="D32">
+        <v>18.874500000000001</v>
+      </c>
+      <c r="E32">
+        <v>18.872399999999999</v>
+      </c>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9">
+        <v>27.590399999999999</v>
+      </c>
+      <c r="C33" s="9">
+        <v>27.601500000000001</v>
+      </c>
+      <c r="D33">
+        <v>27.490500000000001</v>
+      </c>
+      <c r="E33">
+        <v>27.465699999999998</v>
+      </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9">
+        <v>3137.35</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3966.99</v>
+      </c>
+      <c r="D34">
+        <v>3514.97</v>
+      </c>
+      <c r="E34">
+        <v>3909.89</v>
+      </c>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -1440,12 +1549,12 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -1479,6 +1588,9 @@
       <c r="J38" s="11">
         <v>2</v>
       </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -1512,6 +1624,9 @@
       <c r="J39" s="11">
         <v>512</v>
       </c>
+      <c r="K39">
+        <v>768</v>
+      </c>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1545,6 +1660,9 @@
       <c r="J40" s="12">
         <v>0.9</v>
       </c>
+      <c r="K40" s="1">
+        <v>0.9</v>
+      </c>
       <c r="Q40" s="6"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -1576,6 +1694,9 @@
         <v>0.1</v>
       </c>
       <c r="J41" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
         <v>0.1</v>
       </c>
       <c r="Q41" s="3"/>
@@ -1588,6 +1709,9 @@
       <c r="E42" s="3"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -1621,6 +1745,9 @@
       <c r="J43" s="11">
         <v>6.9462999999999997E-2</v>
       </c>
+      <c r="K43">
+        <v>6.8922999999999998E-2</v>
+      </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -1654,6 +1781,9 @@
       <c r="J44" s="11">
         <v>18.921600000000002</v>
       </c>
+      <c r="K44">
+        <v>18.975200000000001</v>
+      </c>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -1687,6 +1817,9 @@
       <c r="J45" s="11">
         <v>27.4527</v>
       </c>
+      <c r="K45">
+        <v>27.471800000000002</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1719,6 +1852,9 @@
       <c r="J46" s="11">
         <v>2333.5500000000002</v>
       </c>
+      <c r="K46">
+        <v>3857.7312999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
@@ -1726,15 +1862,15 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1904,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1938,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1815,46 +1951,90 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B55" s="9">
+        <v>6.9141999999999995E-2</v>
+      </c>
+      <c r="C55" s="9">
+        <v>6.9813E-2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>6.9494E-2</v>
+      </c>
+      <c r="E55">
+        <v>6.9001000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B56" s="9">
+        <v>18.956099999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>19.055800000000001</v>
+      </c>
+      <c r="D56" s="9">
+        <v>18.959099999999999</v>
+      </c>
+      <c r="E56">
+        <v>18.921500000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B57" s="9">
+        <v>27.5517</v>
+      </c>
+      <c r="C57" s="9">
+        <v>27.578099999999999</v>
+      </c>
+      <c r="D57" s="9">
+        <v>27.5137</v>
+      </c>
+      <c r="E57">
+        <v>27.4863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B58" s="9">
+        <v>3601.22</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4608.97</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4038.21</v>
+      </c>
+      <c r="E58">
+        <v>4900.9399999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1939,8 +2119,11 @@
       <c r="AB62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2025,8 +2208,11 @@
       <c r="AB63">
         <v>512</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC63">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2111,8 +2297,11 @@
       <c r="AB64">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC64">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2197,23 +2386,29 @@
       <c r="AB65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="AC65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="I66" s="13"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="4"/>
+      <c r="B66" s="10"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="I66" s="18"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="19"/>
       <c r="T66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U66" s="6"/>
+      <c r="AC66" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2298,8 +2493,11 @@
       <c r="AB67">
         <v>7.0017999999999997E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC67">
+        <v>6.9477999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2384,8 +2582,11 @@
       <c r="AB68">
         <v>19.197700000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC68">
+        <v>19.051400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2470,8 +2671,11 @@
       <c r="AB69">
         <v>27.796800000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC69">
+        <v>27.613700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2556,16 +2760,19 @@
       <c r="AB70">
         <v>1860.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="AC70">
+        <v>5040.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +2854,11 @@
       <c r="AA74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2730,8 +2940,11 @@
       <c r="AA75">
         <v>512</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB75">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2813,8 +3026,11 @@
       <c r="AA76">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB76">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2896,20 +3112,26 @@
       <c r="AA77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="AB77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="L78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="5"/>
-      <c r="X78" s="11"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="L78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="14"/>
+      <c r="X78" s="12"/>
+      <c r="AB78" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2991,8 +3213,11 @@
       <c r="AA79" s="7">
         <v>7.3512999999999995E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB79" s="7">
+        <v>6.9536000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3074,8 +3299,11 @@
       <c r="AA80" s="7">
         <v>20.315200000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="7">
+        <v>18.895499999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -3157,8 +3385,11 @@
       <c r="AA81" s="7">
         <v>29.430599999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="7">
+        <v>27.633600000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3240,16 +3471,19 @@
       <c r="AA82" s="7">
         <v>1763.26</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="AB82" s="7">
+        <v>2045.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3298,8 +3532,11 @@
       <c r="P86" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3348,8 +3585,11 @@
       <c r="P87" s="11">
         <v>768</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -3398,8 +3638,11 @@
       <c r="P88" s="11">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q88" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -3448,8 +3691,11 @@
       <c r="P89" s="12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -3458,8 +3704,11 @@
       <c r="G90" s="7"/>
       <c r="N90" s="5"/>
       <c r="P90" s="11"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3508,8 +3757,11 @@
       <c r="P91" s="11">
         <v>7.2567999999999994E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>7.2361999999999996E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3558,8 +3810,11 @@
       <c r="P92" s="11">
         <v>19.480799999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q92" s="1">
+        <v>19.4543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3608,8 +3863,11 @@
       <c r="P93" s="11">
         <v>28.4924</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>28.460100000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3658,14 +3916,17 @@
       <c r="P94" s="11">
         <v>1075.78</v>
       </c>
+      <c r="Q94" s="1">
+        <v>1281.9100000000001</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -3764,7 +4025,7 @@
         <v>768</v>
       </c>
       <c r="P99">
-        <v>256</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3813,8 +4074,8 @@
       <c r="O100" s="1">
         <v>0.9</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>21</v>
+      <c r="P100" s="1">
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -3864,16 +4125,19 @@
         <v>0.1</v>
       </c>
       <c r="P101">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="E102" s="11"/>
-      <c r="N102" s="11"/>
+      <c r="C102" s="6"/>
+      <c r="E102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="P102" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -3921,6 +4185,9 @@
       <c r="O103">
         <v>6.8491999999999997E-2</v>
       </c>
+      <c r="P103">
+        <v>6.8558999999999995E-2</v>
+      </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -3968,6 +4235,9 @@
       <c r="O104">
         <v>18.7912</v>
       </c>
+      <c r="P104" s="1">
+        <v>18.840599999999998</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -4015,6 +4285,9 @@
       <c r="O105">
         <v>27.497299999999999</v>
       </c>
+      <c r="P105">
+        <v>27.546700000000001</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4062,106 +4335,210 @@
       <c r="O106">
         <v>3992.84</v>
       </c>
+      <c r="P106" s="1">
+        <v>2528.2600000000002</v>
+      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="9">
-        <v>3</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+    </row>
+    <row r="110" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="8">
+        <v>8</v>
+      </c>
+      <c r="C110" s="8">
+        <v>8</v>
+      </c>
+      <c r="D110" s="8">
+        <v>6</v>
+      </c>
+      <c r="E110" s="8">
+        <v>7</v>
+      </c>
+      <c r="F110" s="8">
+        <v>9</v>
+      </c>
+      <c r="G110" s="8">
+        <v>10</v>
+      </c>
+      <c r="H110" s="8">
+        <v>11</v>
+      </c>
+      <c r="I110" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" s="9">
-        <v>768</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>768</v>
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="9">
-        <v>0.9</v>
+        <v>768</v>
       </c>
       <c r="C112">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+      <c r="D112">
+        <v>768</v>
+      </c>
+      <c r="E112">
+        <v>768</v>
+      </c>
+      <c r="F112">
+        <v>768</v>
+      </c>
+      <c r="G112">
+        <v>768</v>
+      </c>
+      <c r="H112">
+        <v>768</v>
+      </c>
+      <c r="I112">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113" s="9">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C113">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="D113">
+        <v>0.9</v>
+      </c>
+      <c r="E113">
+        <v>0.9</v>
+      </c>
+      <c r="F113">
+        <v>0.9</v>
+      </c>
+      <c r="G113">
+        <v>0.9</v>
+      </c>
+      <c r="H113">
+        <v>0.9</v>
+      </c>
+      <c r="I113">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C114">
+        <v>0.1</v>
+      </c>
+      <c r="D114">
+        <v>0.1</v>
+      </c>
+      <c r="E114">
+        <v>0.1</v>
+      </c>
+      <c r="F114">
+        <v>0.1</v>
+      </c>
+      <c r="G114">
+        <v>0.1</v>
+      </c>
+      <c r="H114">
+        <v>0.1</v>
+      </c>
+      <c r="I114">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B116" s="9">
         <v>8.7160000000000001E-2</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>8.5592000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B117" s="9">
         <v>24.1952</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>23.9421</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B118" s="9">
         <v>35.3217</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>35.061399999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B119" s="9">
         <v>1371.31</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C119" s="15">
         <v>1022.7</v>
       </c>
     </row>

--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE491E53-3FF3-4E0A-A155-CE78F859888B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6175ABFB-2D0B-434C-B72F-997E76AE9DEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="465" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RNN, TS=8, lr=0.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN, TS=8, lr=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,14 +562,14 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -648,10 +648,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -950,10 +950,10 @@
         <v>0.9</v>
       </c>
       <c r="V16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="X16" s="12">
         <v>0.9</v>
@@ -1054,7 +1054,7 @@
       <c r="V18" s="13"/>
       <c r="X18" s="11"/>
       <c r="Y18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -1652,7 +1652,7 @@
         <v>0.9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="12">
         <v>0.9</v>
@@ -1710,7 +1710,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="3"/>
     </row>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -1944,11 +1944,11 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="U66" s="6"/>
       <c r="AC66" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
@@ -3128,7 +3128,7 @@
       <c r="O78" s="14"/>
       <c r="X78" s="12"/>
       <c r="AB78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
@@ -4136,7 +4136,7 @@
       <c r="E102" s="12"/>
       <c r="N102" s="12"/>
       <c r="P102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="110" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="8">
         <v>8</v>
@@ -4508,6 +4508,24 @@
       <c r="C116">
         <v>8.5592000000000001E-2</v>
       </c>
+      <c r="D116">
+        <v>8.6016999999999996E-2</v>
+      </c>
+      <c r="E116">
+        <v>8.5403999999999994E-2</v>
+      </c>
+      <c r="F116">
+        <v>8.5236000000000006E-2</v>
+      </c>
+      <c r="G116">
+        <v>8.5694000000000006E-2</v>
+      </c>
+      <c r="H116">
+        <v>8.5805999999999993E-2</v>
+      </c>
+      <c r="I116">
+        <v>8.5664000000000004E-2</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -4519,6 +4537,24 @@
       <c r="C117">
         <v>23.9421</v>
       </c>
+      <c r="D117">
+        <v>23.8994</v>
+      </c>
+      <c r="E117">
+        <v>23.898900000000001</v>
+      </c>
+      <c r="F117">
+        <v>23.852699999999999</v>
+      </c>
+      <c r="G117">
+        <v>23.994700000000002</v>
+      </c>
+      <c r="H117">
+        <v>23.873799999999999</v>
+      </c>
+      <c r="I117">
+        <v>23.962399999999999</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -4530,6 +4566,24 @@
       <c r="C118">
         <v>35.061399999999999</v>
       </c>
+      <c r="D118">
+        <v>34.769599999999997</v>
+      </c>
+      <c r="E118">
+        <v>34.985599999999998</v>
+      </c>
+      <c r="F118">
+        <v>34.961199999999998</v>
+      </c>
+      <c r="G118">
+        <v>35.098399999999998</v>
+      </c>
+      <c r="H118">
+        <v>34.963200000000001</v>
+      </c>
+      <c r="I118">
+        <v>34.918599999999998</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -4540,6 +4594,24 @@
       </c>
       <c r="C119" s="15">
         <v>1022.7</v>
+      </c>
+      <c r="D119">
+        <v>900.56479999999999</v>
+      </c>
+      <c r="E119">
+        <v>846.76</v>
+      </c>
+      <c r="F119">
+        <v>1106.24</v>
+      </c>
+      <c r="G119">
+        <v>1061.08</v>
+      </c>
+      <c r="H119">
+        <v>1129.5</v>
+      </c>
+      <c r="I119">
+        <v>1202.1199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8E42E-8BC0-46D1-B81A-D05F0D5C8ED9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739BBD99-721C-4A6A-AB25-276E68F1F825}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="375" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="720" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="44">
   <si>
     <t>layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,34 @@
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS=6, epoch=2000, bs=144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -324,9 +358,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +375,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,21 +660,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -648,7 +683,7 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>2</v>
       </c>
       <c r="D2">
@@ -698,6 +733,12 @@
       </c>
       <c r="S2">
         <v>1</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -707,7 +748,7 @@
       <c r="B3">
         <v>512</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>512</v>
       </c>
       <c r="D3">
@@ -758,6 +799,12 @@
       <c r="S3">
         <v>512</v>
       </c>
+      <c r="T3">
+        <v>512</v>
+      </c>
+      <c r="U3">
+        <v>512</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -766,7 +813,7 @@
       <c r="B4" s="1">
         <v>0.9</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>0.9</v>
       </c>
       <c r="D4" s="1">
@@ -817,6 +864,12 @@
       <c r="S4" s="1">
         <v>0.9</v>
       </c>
+      <c r="T4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -825,7 +878,7 @@
       <c r="B5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>0.1</v>
       </c>
       <c r="D5">
@@ -874,6 +927,12 @@
         <v>0.1</v>
       </c>
       <c r="S5">
+        <v>0.1</v>
+      </c>
+      <c r="T5">
+        <v>0.1</v>
+      </c>
+      <c r="U5">
         <v>0.1</v>
       </c>
     </row>
@@ -881,12 +940,16 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="E6" s="10"/>
       <c r="N6" s="22"/>
       <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="T6"/>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -895,7 +958,7 @@
       <c r="B7">
         <v>6.8379999999999996E-2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>6.8176E-2</v>
       </c>
       <c r="D7">
@@ -945,6 +1008,12 @@
       </c>
       <c r="S7">
         <v>6.8637000000000004E-2</v>
+      </c>
+      <c r="T7">
+        <v>6.8571999999999994E-2</v>
+      </c>
+      <c r="U7">
+        <v>6.8808999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -954,7 +1023,7 @@
       <c r="B8">
         <v>18.832799999999999</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>18.837700000000002</v>
       </c>
       <c r="D8">
@@ -1004,6 +1073,12 @@
       </c>
       <c r="S8" s="1">
         <v>18.891200000000001</v>
+      </c>
+      <c r="T8">
+        <v>18.868300000000001</v>
+      </c>
+      <c r="U8" s="1">
+        <v>18.9815</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1013,7 +1088,7 @@
       <c r="B9">
         <v>27.54</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>27.53</v>
       </c>
       <c r="D9">
@@ -1063,6 +1138,12 @@
       </c>
       <c r="S9">
         <v>27.5913</v>
+      </c>
+      <c r="T9">
+        <v>27.578600000000002</v>
+      </c>
+      <c r="U9">
+        <v>27.542100000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1072,7 +1153,7 @@
       <c r="B10">
         <v>3138.79</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>1834.17</v>
       </c>
       <c r="D10">
@@ -1122,6 +1203,12 @@
       </c>
       <c r="S10" s="1">
         <v>741.64</v>
+      </c>
+      <c r="T10">
+        <v>2667.44</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1778.43</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1169,12 +1256,18 @@
         <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
       <c r="V12" s="11"/>
@@ -1229,6 +1322,12 @@
       <c r="Q13">
         <v>512</v>
       </c>
+      <c r="R13">
+        <v>512</v>
+      </c>
+      <c r="S13">
+        <v>512</v>
+      </c>
       <c r="V13" s="11"/>
       <c r="X13" s="9"/>
     </row>
@@ -1251,32 +1350,41 @@
       <c r="G14" s="1">
         <v>0.9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>0.8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>0.7</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>0.5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
         <v>0.4</v>
       </c>
-      <c r="N14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P14">
-        <v>0.9</v>
+      <c r="Q14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.1</v>
       </c>
       <c r="V14" s="11"/>
       <c r="X14" s="9"/>
@@ -1298,17 +1406,17 @@
         <v>0.6</v>
       </c>
       <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15">
-        <v>0.1</v>
-      </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
       <c r="K15">
         <v>0.1</v>
       </c>
@@ -1325,6 +1433,15 @@
         <v>0.1</v>
       </c>
       <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
         <v>0.1</v>
       </c>
       <c r="V15" s="11"/>
@@ -1336,17 +1453,14 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="V16" s="11"/>
       <c r="X16" s="9"/>
     </row>
@@ -1367,25 +1481,43 @@
         <v>6.8946999999999994E-2</v>
       </c>
       <c r="G17">
+        <v>6.8833000000000005E-2</v>
+      </c>
+      <c r="H17">
+        <v>6.8801000000000001E-2</v>
+      </c>
+      <c r="I17">
+        <v>6.8751000000000007E-2</v>
+      </c>
+      <c r="J17">
         <v>6.8501999999999993E-2</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>6.9195999999999994E-2</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>6.9110000000000005E-2</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>6.9637000000000004E-2</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>7.0240999999999998E-2</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>7.1719000000000005E-2</v>
       </c>
-      <c r="O17">
-        <v>6.8571999999999994E-2</v>
+      <c r="P17">
+        <v>7.3332999999999995E-2</v>
+      </c>
+      <c r="Q17">
+        <v>7.5448000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>7.7645000000000006E-2</v>
+      </c>
+      <c r="S17">
+        <v>8.6910000000000001E-2</v>
       </c>
       <c r="V17" s="11"/>
       <c r="X17" s="9"/>
@@ -1407,25 +1539,43 @@
         <v>19.0288</v>
       </c>
       <c r="G18" s="1">
+        <v>18.859000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>18.869599999999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>18.8416</v>
+      </c>
+      <c r="J18" s="1">
         <v>18.867999999999999</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>19.244700000000002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <v>18.972200000000001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18" s="1">
         <v>19.184899999999999</v>
       </c>
-      <c r="K18" s="1">
+      <c r="N18" s="1">
         <v>19.369299999999999</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>19.746300000000002</v>
       </c>
-      <c r="O18">
-        <v>18.868300000000001</v>
+      <c r="P18" s="1">
+        <v>20.190300000000001</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>20.7105</v>
+      </c>
+      <c r="R18" s="1">
+        <v>21.297799999999999</v>
+      </c>
+      <c r="S18" s="1">
+        <v>23.822900000000001</v>
       </c>
       <c r="V18" s="11"/>
       <c r="X18" s="9"/>
@@ -1447,25 +1597,43 @@
         <v>27.7424</v>
       </c>
       <c r="G19">
+        <v>27.5657</v>
+      </c>
+      <c r="H19">
+        <v>27.58</v>
+      </c>
+      <c r="I19">
+        <v>27.535799999999998</v>
+      </c>
+      <c r="J19">
         <v>27.392199999999999</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>27.991800000000001</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>27.720600000000001</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>28.006</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>28.234300000000001</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>28.706399999999999</v>
       </c>
-      <c r="O19">
-        <v>27.578600000000002</v>
+      <c r="P19">
+        <v>29.223800000000001</v>
+      </c>
+      <c r="Q19">
+        <v>29.837900000000001</v>
+      </c>
+      <c r="R19">
+        <v>30.6981</v>
+      </c>
+      <c r="S19">
+        <v>33.816600000000001</v>
       </c>
       <c r="V19" s="11"/>
       <c r="X19" s="9"/>
@@ -1487,25 +1655,43 @@
         <v>1387.99</v>
       </c>
       <c r="G20" s="1">
+        <v>1396.32</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1378.46</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1536.4</v>
+      </c>
+      <c r="J20" s="1">
         <v>1385.13</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>1376.38</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>1382.76</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>1526.45</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="1">
         <v>1525.62</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>1542.36</v>
       </c>
-      <c r="O20">
-        <v>2667.44</v>
+      <c r="P20" s="1">
+        <v>1379.76</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1517.8</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1380.91</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1384.08</v>
       </c>
       <c r="V20" s="11"/>
       <c r="X20" s="9"/>
@@ -1519,13 +1705,13 @@
       <c r="X22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1543,7 +1729,7 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>2</v>
       </c>
       <c r="G24">
@@ -1569,7 +1755,7 @@
       <c r="E25">
         <v>768</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>512</v>
       </c>
       <c r="G25">
@@ -1595,7 +1781,7 @@
       <c r="E26">
         <v>0.9</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>0.9</v>
       </c>
       <c r="G26" s="1">
@@ -1621,7 +1807,7 @@
       <c r="E27">
         <v>0.1</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>0.1</v>
       </c>
       <c r="G27">
@@ -1642,7 +1828,7 @@
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1660,7 +1846,7 @@
       <c r="E29">
         <v>6.8790000000000004E-2</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>6.9081000000000004E-2</v>
       </c>
       <c r="G29">
@@ -1686,7 +1872,7 @@
       <c r="E30">
         <v>18.8964</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>18.815000000000001</v>
       </c>
       <c r="G30" s="1">
@@ -1712,7 +1898,7 @@
       <c r="E31">
         <v>27.535900000000002</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>27.482900000000001</v>
       </c>
       <c r="G31">
@@ -1738,7 +1924,7 @@
       <c r="E32">
         <v>2862.41</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>1755.69</v>
       </c>
       <c r="G32" s="1">
@@ -1749,12 +1935,12 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -1768,7 +1954,7 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="25">
         <v>2</v>
       </c>
       <c r="E36">
@@ -1845,7 +2031,7 @@
       <c r="C37">
         <v>512</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>512</v>
       </c>
       <c r="E37">
@@ -1922,7 +2108,7 @@
       <c r="C38" s="1">
         <v>0.9</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>0.9</v>
       </c>
       <c r="E38" s="1">
@@ -1999,7 +2185,7 @@
       <c r="C39">
         <v>0.3</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>0.1</v>
       </c>
       <c r="E39">
@@ -2070,7 +2256,7 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="25"/>
       <c r="H40" s="1"/>
       <c r="M40" s="19"/>
       <c r="P40" s="1" t="s">
@@ -2092,7 +2278,7 @@
       <c r="C41">
         <v>6.9514999999999993E-2</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>6.9417000000000006E-2</v>
       </c>
       <c r="E41">
@@ -2169,7 +2355,7 @@
       <c r="C42">
         <v>18.907599999999999</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="25">
         <v>18.878799999999998</v>
       </c>
       <c r="E42">
@@ -2246,7 +2432,7 @@
       <c r="C43">
         <v>27.515799999999999</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="25">
         <v>27.484400000000001</v>
       </c>
       <c r="E43">
@@ -2323,7 +2509,7 @@
       <c r="C44">
         <v>1734.4</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="25">
         <v>2468.09</v>
       </c>
       <c r="E44">
@@ -2397,12 +2583,12 @@
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -2421,7 +2607,7 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>2</v>
       </c>
       <c r="Q48" s="3"/>
@@ -2442,7 +2628,7 @@
       <c r="E49">
         <v>768</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>512</v>
       </c>
       <c r="Q49" s="3"/>
@@ -2463,7 +2649,7 @@
       <c r="E50">
         <v>0.9</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>0.9</v>
       </c>
       <c r="Q50" s="3"/>
@@ -2484,7 +2670,7 @@
       <c r="E51">
         <v>0.1</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="27">
         <v>0.1</v>
       </c>
       <c r="Q51" s="3"/>
@@ -2501,7 +2687,7 @@
       <c r="E52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="27"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -2530,7 +2716,7 @@
       <c r="E53">
         <v>6.8816000000000002E-2</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>6.8705000000000002E-2</v>
       </c>
       <c r="Q53" s="3"/>
@@ -2551,7 +2737,7 @@
       <c r="E54">
         <v>18.872399999999999</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>18.928100000000001</v>
       </c>
       <c r="Q54" s="3"/>
@@ -2572,7 +2758,7 @@
       <c r="E55">
         <v>27.465699999999998</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <v>27.422999999999998</v>
       </c>
       <c r="Q55" s="3"/>
@@ -2593,18 +2779,18 @@
       <c r="E56">
         <v>3909.89</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <v>2136.6943999999999</v>
       </c>
       <c r="Q56" s="3"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2634,7 +2820,7 @@
       <c r="I60" s="9">
         <v>2</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="25">
         <v>2</v>
       </c>
       <c r="K60">
@@ -2669,7 +2855,7 @@
       <c r="I61" s="9">
         <v>256</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>512</v>
       </c>
       <c r="K61">
@@ -2704,7 +2890,7 @@
       <c r="I62" s="10">
         <v>0.9</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="26">
         <v>0.9</v>
       </c>
       <c r="K62" s="1">
@@ -2744,7 +2930,7 @@
       <c r="I63" s="9">
         <v>0.1</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="25">
         <v>0.1</v>
       </c>
       <c r="K63">
@@ -2758,7 +2944,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="19"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="26"/>
+      <c r="J64" s="25"/>
       <c r="K64" t="s">
         <v>26</v>
       </c>
@@ -2791,7 +2977,7 @@
       <c r="I65" s="9">
         <v>7.1776000000000006E-2</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="25">
         <v>6.9462999999999997E-2</v>
       </c>
       <c r="K65">
@@ -2826,7 +3012,7 @@
       <c r="I66" s="9">
         <v>19.7118</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="25">
         <v>18.921600000000002</v>
       </c>
       <c r="K66">
@@ -2861,7 +3047,7 @@
       <c r="I67" s="9">
         <v>28.299600000000002</v>
       </c>
-      <c r="J67" s="26">
+      <c r="J67" s="25">
         <v>27.4527</v>
       </c>
       <c r="K67">
@@ -2896,7 +3082,7 @@
       <c r="I68" s="9">
         <v>1281.22</v>
       </c>
-      <c r="J68" s="26">
+      <c r="J68" s="25">
         <v>2333.5500000000002</v>
       </c>
       <c r="K68">
@@ -2904,12 +3090,12 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -2927,7 +3113,7 @@
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2947,7 +3133,7 @@
       <c r="E73">
         <v>768</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="27">
         <v>512</v>
       </c>
     </row>
@@ -2967,7 +3153,7 @@
       <c r="E74">
         <v>0.9</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="28">
         <v>0.9</v>
       </c>
     </row>
@@ -2987,7 +3173,7 @@
       <c r="E75">
         <v>0.1</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -3002,7 +3188,7 @@
       <c r="E76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -3020,7 +3206,7 @@
       <c r="E77">
         <v>6.9001000000000007E-2</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="27">
         <v>6.9420999999999997E-2</v>
       </c>
     </row>
@@ -3040,7 +3226,7 @@
       <c r="E78">
         <v>18.921500000000002</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="27">
         <v>18.985099999999999</v>
       </c>
       <c r="G78"/>
@@ -3070,7 +3256,7 @@
       <c r="E79">
         <v>27.4863</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="27">
         <v>27.526</v>
       </c>
     </row>
@@ -3090,17 +3276,17 @@
       <c r="E80">
         <v>4900.9399999999996</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="27">
         <v>2238.1799999999998</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
@@ -3119,7 +3305,7 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="25">
         <v>2</v>
       </c>
       <c r="G84" s="9">
@@ -3208,7 +3394,7 @@
       <c r="E85">
         <v>512</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="25">
         <v>512</v>
       </c>
       <c r="G85" s="9">
@@ -3297,7 +3483,7 @@
       <c r="E86">
         <v>0.9</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="25">
         <v>0.9</v>
       </c>
       <c r="G86" s="9">
@@ -3386,7 +3572,7 @@
       <c r="E87">
         <v>0.3</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="25">
         <v>0.1</v>
       </c>
       <c r="G87" s="9">
@@ -3467,7 +3653,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="27"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="10"/>
       <c r="H88" s="1"/>
       <c r="I88" s="15"/>
@@ -3512,7 +3698,7 @@
       <c r="E89">
         <v>6.9939000000000001E-2</v>
       </c>
-      <c r="F89" s="26">
+      <c r="F89" s="25">
         <v>7.0357000000000003E-2</v>
       </c>
       <c r="G89" s="9">
@@ -3601,7 +3787,7 @@
       <c r="E90">
         <v>19.050599999999999</v>
       </c>
-      <c r="F90" s="26">
+      <c r="F90" s="25">
         <v>19.157299999999999</v>
       </c>
       <c r="G90" s="9">
@@ -3690,7 +3876,7 @@
       <c r="E91">
         <v>27.564800000000002</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="25">
         <v>27.5351</v>
       </c>
       <c r="G91" s="9">
@@ -3779,7 +3965,7 @@
       <c r="E92">
         <v>3051.29</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="25">
         <v>3250.49</v>
       </c>
       <c r="G92" s="9">
@@ -3853,12 +4039,12 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -3867,7 +4053,7 @@
       <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="25">
         <v>2</v>
       </c>
       <c r="D96" s="9">
@@ -3953,7 +4139,7 @@
       <c r="B97">
         <v>512</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="25">
         <v>512</v>
       </c>
       <c r="D97" s="9">
@@ -4039,7 +4225,7 @@
       <c r="B98">
         <v>0.9</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="25">
         <v>0.9</v>
       </c>
       <c r="D98" s="9">
@@ -4125,7 +4311,7 @@
       <c r="B99">
         <v>0.1</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="25">
         <v>0.1</v>
       </c>
       <c r="D99" s="9">
@@ -4209,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="10"/>
       <c r="E100" s="1"/>
       <c r="F100" s="10"/>
@@ -4246,7 +4432,7 @@
       <c r="B101">
         <v>6.9750999999999994E-2</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="25">
         <v>6.9780999999999996E-2</v>
       </c>
       <c r="D101" s="9">
@@ -4332,7 +4518,7 @@
       <c r="B102">
         <v>18.932099999999998</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C102" s="25">
         <v>18.9345</v>
       </c>
       <c r="D102" s="9">
@@ -4418,7 +4604,7 @@
       <c r="B103">
         <v>27.686900000000001</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="25">
         <v>27.6877</v>
       </c>
       <c r="D103" s="9">
@@ -4504,7 +4690,7 @@
       <c r="B104">
         <v>2288.98</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="25">
         <v>1656.75</v>
       </c>
       <c r="D104" s="9">
@@ -4593,12 +4779,12 @@
       <c r="P105" s="7"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -4607,7 +4793,7 @@
       <c r="B108" s="17">
         <v>2</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C108" s="27">
         <v>2</v>
       </c>
       <c r="D108" s="2"/>
@@ -4619,7 +4805,7 @@
       <c r="B109" s="17">
         <v>768</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C109" s="27">
         <v>512</v>
       </c>
       <c r="D109" s="2"/>
@@ -4631,7 +4817,7 @@
       <c r="B110" s="17">
         <v>0.9</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="28">
         <v>0.9</v>
       </c>
       <c r="D110" s="2"/>
@@ -4643,7 +4829,7 @@
       <c r="B111" s="17">
         <v>0.1</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C111" s="27">
         <v>0.1</v>
       </c>
       <c r="D111" s="2"/>
@@ -4652,18 +4838,18 @@
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="28"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="27"/>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="25">
+      <c r="B113" s="24">
         <v>7.0627999999999996E-2</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="27">
         <v>7.0910000000000001E-2</v>
       </c>
       <c r="D113" s="2"/>
@@ -4684,10 +4870,10 @@
       <c r="A114" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="25">
+      <c r="B114" s="24">
         <v>19.107399999999998</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="27">
         <v>19.1389</v>
       </c>
       <c r="D114" s="2"/>
@@ -4696,10 +4882,10 @@
       <c r="A115" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B115" s="24">
         <v>27.999099999999999</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="27">
         <v>28.014700000000001</v>
       </c>
       <c r="D115" s="2"/>
@@ -4708,10 +4894,10 @@
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="25">
+      <c r="B116" s="24">
         <v>1508.35</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="27">
         <v>954.69</v>
       </c>
       <c r="D116" s="2"/>
@@ -4729,12 +4915,12 @@
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -4743,7 +4929,7 @@
       <c r="B120">
         <v>3</v>
       </c>
-      <c r="C120" s="26">
+      <c r="C120" s="25">
         <v>2</v>
       </c>
       <c r="D120">
@@ -4796,7 +4982,7 @@
       <c r="B121">
         <v>512</v>
       </c>
-      <c r="C121" s="26">
+      <c r="C121" s="25">
         <v>512</v>
       </c>
       <c r="D121">
@@ -4849,7 +5035,7 @@
       <c r="B122">
         <v>0.9</v>
       </c>
-      <c r="C122" s="26">
+      <c r="C122" s="25">
         <v>0.9</v>
       </c>
       <c r="D122">
@@ -4902,7 +5088,7 @@
       <c r="B123" s="1">
         <v>0.1</v>
       </c>
-      <c r="C123" s="27">
+      <c r="C123" s="26">
         <v>0.1</v>
       </c>
       <c r="D123" s="1">
@@ -4952,7 +5138,7 @@
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="26"/>
+      <c r="C124" s="25"/>
       <c r="E124" s="9"/>
       <c r="G124" s="7"/>
       <c r="N124" s="5"/>
@@ -4968,7 +5154,7 @@
       <c r="B125">
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="C125" s="26">
+      <c r="C125" s="25">
         <v>7.2250999999999996E-2</v>
       </c>
       <c r="D125">
@@ -5021,7 +5207,7 @@
       <c r="B126">
         <v>19.5105</v>
       </c>
-      <c r="C126" s="26">
+      <c r="C126" s="25">
         <v>19.475300000000001</v>
       </c>
       <c r="D126">
@@ -5074,7 +5260,7 @@
       <c r="B127">
         <v>28.526900000000001</v>
       </c>
-      <c r="C127" s="26">
+      <c r="C127" s="25">
         <v>28.5017</v>
       </c>
       <c r="D127">
@@ -5127,7 +5313,7 @@
       <c r="B128">
         <v>1575.41</v>
       </c>
-      <c r="C128" s="26">
+      <c r="C128" s="25">
         <v>1173.9100000000001</v>
       </c>
       <c r="D128">
@@ -5174,12 +5360,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -5188,7 +5374,7 @@
       <c r="B132" s="17">
         <v>2</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C132" s="27">
         <v>2</v>
       </c>
     </row>
@@ -5199,7 +5385,7 @@
       <c r="B133" s="17">
         <v>768</v>
       </c>
-      <c r="C133" s="28">
+      <c r="C133" s="27">
         <v>512</v>
       </c>
     </row>
@@ -5210,7 +5396,7 @@
       <c r="B134" s="17">
         <v>0.9</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C134" s="28">
         <v>0.9</v>
       </c>
     </row>
@@ -5221,7 +5407,7 @@
       <c r="B135" s="17">
         <v>0.1</v>
       </c>
-      <c r="C135" s="28">
+      <c r="C135" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -5235,33 +5421,53 @@
       <c r="A137" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="17"/>
+      <c r="B137" s="17">
+        <v>0.11179799999999999</v>
+      </c>
+      <c r="C137" s="27">
+        <v>0.11304500000000001</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="17"/>
+      <c r="B138" s="17">
+        <v>24.628499999999999</v>
+      </c>
+      <c r="C138" s="27">
+        <v>24.884499999999999</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="17"/>
+      <c r="B139" s="17">
+        <v>33.7348</v>
+      </c>
+      <c r="C139" s="27">
+        <v>34.012500000000003</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
-      <c r="B140" s="17"/>
+      <c r="B140" s="17">
+        <v>773.13729999999998</v>
+      </c>
+      <c r="C140" s="27">
+        <v>537.74</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -5270,7 +5476,7 @@
       <c r="B144" s="17">
         <v>2</v>
       </c>
-      <c r="C144" s="28">
+      <c r="C144" s="27">
         <v>2</v>
       </c>
     </row>
@@ -5281,7 +5487,7 @@
       <c r="B145" s="17">
         <v>768</v>
       </c>
-      <c r="C145" s="28">
+      <c r="C145" s="27">
         <v>512</v>
       </c>
     </row>
@@ -5292,7 +5498,7 @@
       <c r="B146" s="17">
         <v>0.9</v>
       </c>
-      <c r="C146" s="29">
+      <c r="C146" s="28">
         <v>0.9</v>
       </c>
     </row>
@@ -5303,7 +5509,7 @@
       <c r="B147" s="17">
         <v>0.1</v>
       </c>
-      <c r="C147" s="28">
+      <c r="C147" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -5334,7 +5540,7 @@
       <c r="B149" s="17">
         <v>6.9127999999999995E-2</v>
       </c>
-      <c r="C149" s="28">
+      <c r="C149" s="27">
         <v>6.9247000000000003E-2</v>
       </c>
     </row>
@@ -5345,7 +5551,7 @@
       <c r="B150" s="17">
         <v>18.761900000000001</v>
       </c>
-      <c r="C150" s="28">
+      <c r="C150" s="27">
         <v>18.788699999999999</v>
       </c>
       <c r="D150"/>
@@ -5369,7 +5575,7 @@
       <c r="B151" s="17">
         <v>27.479199999999999</v>
       </c>
-      <c r="C151" s="28">
+      <c r="C151" s="27">
         <v>27.500699999999998</v>
       </c>
     </row>
@@ -5380,17 +5586,17 @@
       <c r="B152" s="17">
         <v>1949.61</v>
       </c>
-      <c r="C152" s="28">
+      <c r="C152" s="27">
         <v>1234.8900000000001</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
     </row>
     <row r="158" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -5479,7 +5685,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -5508,7 +5714,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -5537,12 +5743,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +5777,7 @@
         <v>8.5664000000000004E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -5600,7 +5806,7 @@
         <v>23.962399999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5629,7 +5835,7 @@
         <v>34.918599999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5658,231 +5864,1126 @@
         <v>1202.1199999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <v>4</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172">
+        <v>0.08</v>
+      </c>
+      <c r="C172">
+        <v>0.08</v>
+      </c>
+      <c r="D172">
+        <v>0.01</v>
+      </c>
+      <c r="E172">
+        <v>0.08</v>
+      </c>
+      <c r="F172">
+        <v>0.08</v>
+      </c>
+      <c r="G172">
+        <v>0.08</v>
+      </c>
+      <c r="H172">
+        <v>0.08</v>
+      </c>
+      <c r="I172">
+        <v>0.08</v>
+      </c>
+      <c r="J172">
+        <v>0.08</v>
+      </c>
+      <c r="K172">
+        <v>0.08</v>
+      </c>
+      <c r="L172">
+        <v>0.08</v>
+      </c>
+      <c r="M172">
+        <v>0.08</v>
+      </c>
+      <c r="N172">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173">
+        <v>1000</v>
+      </c>
+      <c r="C173">
+        <v>2000</v>
+      </c>
+      <c r="D173">
+        <v>2000</v>
+      </c>
+      <c r="E173">
+        <v>1000</v>
+      </c>
+      <c r="F173">
+        <v>2000</v>
+      </c>
+      <c r="G173">
+        <v>1000</v>
+      </c>
+      <c r="H173">
+        <v>2000</v>
+      </c>
+      <c r="I173">
+        <v>1000</v>
+      </c>
+      <c r="J173">
+        <v>2000</v>
+      </c>
+      <c r="K173">
+        <v>1000</v>
+      </c>
+      <c r="L173">
+        <v>2000</v>
+      </c>
+      <c r="M173">
+        <v>1000</v>
+      </c>
+      <c r="N173">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>512</v>
+      </c>
+      <c r="C175">
+        <v>512</v>
+      </c>
+      <c r="D175">
+        <v>512</v>
+      </c>
+      <c r="E175">
+        <v>512</v>
+      </c>
+      <c r="F175">
+        <v>512</v>
+      </c>
+      <c r="G175">
+        <v>512</v>
+      </c>
+      <c r="H175">
+        <v>512</v>
+      </c>
+      <c r="I175">
+        <v>512</v>
+      </c>
+      <c r="J175">
+        <v>512</v>
+      </c>
+      <c r="K175">
+        <v>512</v>
+      </c>
+      <c r="L175">
+        <v>512</v>
+      </c>
+      <c r="M175">
+        <v>512</v>
+      </c>
+      <c r="N175">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>0.9</v>
+      </c>
+      <c r="C176">
+        <v>0.9</v>
+      </c>
+      <c r="D176">
+        <v>0.9</v>
+      </c>
+      <c r="E176">
+        <v>0.9</v>
+      </c>
+      <c r="F176">
+        <v>0.9</v>
+      </c>
+      <c r="G176">
+        <v>0.9</v>
+      </c>
+      <c r="H176">
+        <v>0.9</v>
+      </c>
+      <c r="I176">
+        <v>0.9</v>
+      </c>
+      <c r="J176">
+        <v>0.9</v>
+      </c>
+      <c r="K176">
+        <v>0.9</v>
+      </c>
+      <c r="L176">
+        <v>0.9</v>
+      </c>
+      <c r="M176">
+        <v>0.9</v>
+      </c>
+      <c r="N176">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177">
+        <v>0.1</v>
+      </c>
+      <c r="C177">
+        <v>0.1</v>
+      </c>
+      <c r="D177">
+        <v>0.1</v>
+      </c>
+      <c r="E177">
+        <v>0.1</v>
+      </c>
+      <c r="F177">
+        <v>0.1</v>
+      </c>
+      <c r="G177">
+        <v>0.1</v>
+      </c>
+      <c r="H177">
+        <v>0.1</v>
+      </c>
+      <c r="I177">
+        <v>0.1</v>
+      </c>
+      <c r="J177">
+        <v>0.1</v>
+      </c>
+      <c r="K177">
+        <v>0.1</v>
+      </c>
+      <c r="L177">
+        <v>0.1</v>
+      </c>
+      <c r="M177">
+        <v>0.1</v>
+      </c>
+      <c r="N177">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>7.8062999999999994E-2</v>
+      </c>
+      <c r="C179">
+        <v>7.8066999999999998E-2</v>
+      </c>
+      <c r="D179">
+        <v>8.2031000000000007E-2</v>
+      </c>
+      <c r="K179">
+        <v>9.1977000000000003E-2</v>
+      </c>
+      <c r="L179">
+        <v>9.1431999999999999E-2</v>
+      </c>
+      <c r="M179">
+        <v>9.2775999999999997E-2</v>
+      </c>
+      <c r="N179">
+        <v>9.2814999999999995E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <v>21.7424</v>
+      </c>
+      <c r="C180">
+        <v>21.930199999999999</v>
+      </c>
+      <c r="D180">
+        <v>22.0884</v>
+      </c>
+      <c r="K180">
+        <v>25.409700000000001</v>
+      </c>
+      <c r="L180">
+        <v>25.886600000000001</v>
+      </c>
+      <c r="M180">
+        <v>25.8245</v>
+      </c>
+      <c r="N180">
+        <v>26.741900000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>31.5108</v>
+      </c>
+      <c r="C181">
+        <v>31.790299999999998</v>
+      </c>
+      <c r="D181">
+        <v>32.101799999999997</v>
+      </c>
+      <c r="K181">
+        <v>36.8172</v>
+      </c>
+      <c r="L181">
+        <v>37.845399999999998</v>
+      </c>
+      <c r="M181">
+        <v>37.525399999999998</v>
+      </c>
+      <c r="N181">
+        <v>39.378500000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>1380.8</v>
+      </c>
+      <c r="D182">
+        <v>1397.83</v>
+      </c>
+      <c r="L182">
+        <v>1612.22</v>
+      </c>
+      <c r="N182">
+        <v>1594.56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184">
         <v>8</v>
       </c>
-      <c r="C171">
+      <c r="E184">
         <v>8</v>
       </c>
-      <c r="D171">
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184">
+        <v>9</v>
+      </c>
+      <c r="H184">
+        <v>10</v>
+      </c>
+      <c r="I184">
+        <v>10</v>
+      </c>
+      <c r="J184">
+        <v>11</v>
+      </c>
+      <c r="K184">
+        <v>11</v>
+      </c>
+      <c r="L184">
+        <v>12</v>
+      </c>
+      <c r="M184">
+        <v>12</v>
+      </c>
+      <c r="N184">
+        <v>12</v>
+      </c>
+      <c r="O184">
+        <v>24</v>
+      </c>
+      <c r="P184">
+        <v>24</v>
+      </c>
+      <c r="Q184">
+        <v>144</v>
+      </c>
+      <c r="R184">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>0.08</v>
+      </c>
+      <c r="C185">
+        <v>0.08</v>
+      </c>
+      <c r="D185">
+        <v>0.08</v>
+      </c>
+      <c r="E185">
+        <v>0.08</v>
+      </c>
+      <c r="F185">
+        <v>0.08</v>
+      </c>
+      <c r="G185">
+        <v>0.08</v>
+      </c>
+      <c r="H185">
+        <v>0.08</v>
+      </c>
+      <c r="I185">
+        <v>0.08</v>
+      </c>
+      <c r="J185">
+        <v>0.08</v>
+      </c>
+      <c r="K185">
+        <v>0.08</v>
+      </c>
+      <c r="L185">
+        <v>0.08</v>
+      </c>
+      <c r="M185">
+        <v>0.08</v>
+      </c>
+      <c r="N185">
+        <v>0.01</v>
+      </c>
+      <c r="O185">
+        <v>0.08</v>
+      </c>
+      <c r="P185">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>1000</v>
+      </c>
+      <c r="C186">
+        <v>2000</v>
+      </c>
+      <c r="D186">
+        <v>1000</v>
+      </c>
+      <c r="E186">
+        <v>2000</v>
+      </c>
+      <c r="F186">
+        <v>1000</v>
+      </c>
+      <c r="G186">
+        <v>2000</v>
+      </c>
+      <c r="H186">
+        <v>1000</v>
+      </c>
+      <c r="I186">
+        <v>2000</v>
+      </c>
+      <c r="J186">
+        <v>1000</v>
+      </c>
+      <c r="K186">
+        <v>2000</v>
+      </c>
+      <c r="L186">
+        <v>1000</v>
+      </c>
+      <c r="M186">
+        <v>2000</v>
+      </c>
+      <c r="N186">
+        <v>2000</v>
+      </c>
+      <c r="O186">
+        <v>1000</v>
+      </c>
+      <c r="P186">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>2</v>
+      </c>
+      <c r="P187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>512</v>
+      </c>
+      <c r="C188">
+        <v>512</v>
+      </c>
+      <c r="D188">
+        <v>512</v>
+      </c>
+      <c r="E188">
+        <v>512</v>
+      </c>
+      <c r="F188">
+        <v>512</v>
+      </c>
+      <c r="G188">
+        <v>512</v>
+      </c>
+      <c r="H188">
+        <v>512</v>
+      </c>
+      <c r="I188">
+        <v>512</v>
+      </c>
+      <c r="J188">
+        <v>512</v>
+      </c>
+      <c r="K188">
+        <v>512</v>
+      </c>
+      <c r="L188">
+        <v>512</v>
+      </c>
+      <c r="M188">
+        <v>512</v>
+      </c>
+      <c r="O188">
+        <v>512</v>
+      </c>
+      <c r="P188">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>0.9</v>
+      </c>
+      <c r="C189">
+        <v>0.9</v>
+      </c>
+      <c r="D189">
+        <v>0.9</v>
+      </c>
+      <c r="E189">
+        <v>0.9</v>
+      </c>
+      <c r="F189">
+        <v>0.9</v>
+      </c>
+      <c r="G189">
+        <v>0.9</v>
+      </c>
+      <c r="H189">
+        <v>0.9</v>
+      </c>
+      <c r="I189">
+        <v>0.9</v>
+      </c>
+      <c r="J189">
+        <v>0.9</v>
+      </c>
+      <c r="K189">
+        <v>0.9</v>
+      </c>
+      <c r="L189">
+        <v>0.9</v>
+      </c>
+      <c r="M189">
+        <v>0.9</v>
+      </c>
+      <c r="O189">
+        <v>0.9</v>
+      </c>
+      <c r="P189">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>0.1</v>
+      </c>
+      <c r="C190">
+        <v>0.1</v>
+      </c>
+      <c r="D190">
+        <v>0.1</v>
+      </c>
+      <c r="E190">
+        <v>0.1</v>
+      </c>
+      <c r="F190">
+        <v>0.1</v>
+      </c>
+      <c r="G190">
+        <v>0.1</v>
+      </c>
+      <c r="H190">
+        <v>0.1</v>
+      </c>
+      <c r="I190">
+        <v>0.1</v>
+      </c>
+      <c r="J190">
+        <v>0.1</v>
+      </c>
+      <c r="K190">
+        <v>0.1</v>
+      </c>
+      <c r="L190">
+        <v>0.1</v>
+      </c>
+      <c r="M190">
+        <v>0.1</v>
+      </c>
+      <c r="O190">
+        <v>0.1</v>
+      </c>
+      <c r="P190">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>9.3340999999999993E-2</v>
+      </c>
+      <c r="C192">
+        <v>9.5251000000000002E-2</v>
+      </c>
+      <c r="D192">
+        <v>9.3368999999999994E-2</v>
+      </c>
+      <c r="E192">
+        <v>9.7125000000000003E-2</v>
+      </c>
+      <c r="F192">
+        <v>9.7140000000000004E-2</v>
+      </c>
+      <c r="G192">
+        <v>9.9353999999999998E-2</v>
+      </c>
+      <c r="H192">
+        <v>0.10025299999999999</v>
+      </c>
+      <c r="I192">
+        <v>9.9543999999999994E-2</v>
+      </c>
+      <c r="J192">
+        <v>9.5968999999999999E-2</v>
+      </c>
+      <c r="K192">
+        <v>9.8265000000000005E-2</v>
+      </c>
+      <c r="L192">
+        <v>0.100989</v>
+      </c>
+      <c r="M192">
+        <v>0.101798</v>
+      </c>
+      <c r="N192">
+        <v>0.10452500000000001</v>
+      </c>
+      <c r="O192">
+        <v>0.114408</v>
+      </c>
+      <c r="P192">
+        <v>0.115346</v>
+      </c>
+      <c r="Q192">
+        <v>0.137901</v>
+      </c>
+      <c r="R192">
+        <v>0.14027200000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>26.228300000000001</v>
+      </c>
+      <c r="C193">
+        <v>27.278400000000001</v>
+      </c>
+      <c r="D193">
+        <v>26.682600000000001</v>
+      </c>
+      <c r="E193">
+        <v>28.259799999999998</v>
+      </c>
+      <c r="F193">
+        <v>27.1694</v>
+      </c>
+      <c r="G193">
+        <v>28.7303</v>
+      </c>
+      <c r="H193">
+        <v>27.956900000000001</v>
+      </c>
+      <c r="I193">
+        <v>28.617699999999999</v>
+      </c>
+      <c r="J193">
+        <v>27.597000000000001</v>
+      </c>
+      <c r="K193">
+        <v>28.9757</v>
+      </c>
+      <c r="L193">
+        <v>28.252400000000002</v>
+      </c>
+      <c r="M193">
+        <v>29.160299999999999</v>
+      </c>
+      <c r="N193">
+        <v>28.806699999999999</v>
+      </c>
+      <c r="O193">
+        <v>31.546099999999999</v>
+      </c>
+      <c r="P193">
+        <v>32.6417</v>
+      </c>
+      <c r="Q193">
+        <v>38.921900000000001</v>
+      </c>
+      <c r="R193">
+        <v>39.606900000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>38.394799999999996</v>
+      </c>
+      <c r="C194">
+        <v>40.438699999999997</v>
+      </c>
+      <c r="D194">
+        <v>39.398699999999998</v>
+      </c>
+      <c r="E194">
+        <v>42.152200000000001</v>
+      </c>
+      <c r="F194">
+        <v>39.738599999999998</v>
+      </c>
+      <c r="G194">
+        <v>42.341000000000001</v>
+      </c>
+      <c r="H194">
+        <v>40.836399999999998</v>
+      </c>
+      <c r="I194">
+        <v>42.087800000000001</v>
+      </c>
+      <c r="J194">
+        <v>40.873100000000001</v>
+      </c>
+      <c r="K194">
+        <v>43.565300000000001</v>
+      </c>
+      <c r="L194">
+        <v>41.297499999999999</v>
+      </c>
+      <c r="M194">
+        <v>42.9238</v>
+      </c>
+      <c r="N194">
+        <v>41.476999999999997</v>
+      </c>
+      <c r="O194">
+        <v>46.528500000000001</v>
+      </c>
+      <c r="P194">
+        <v>49.215899999999998</v>
+      </c>
+      <c r="Q194">
+        <v>60.0291</v>
+      </c>
+      <c r="R194">
+        <v>61.491900000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>1602.47</v>
+      </c>
+      <c r="E195">
+        <v>1435.07</v>
+      </c>
+      <c r="G195">
+        <v>1533.8</v>
+      </c>
+      <c r="I195">
+        <v>1621.27</v>
+      </c>
+      <c r="K195">
+        <v>1574.03</v>
+      </c>
+      <c r="M195">
+        <v>1499.28</v>
+      </c>
+      <c r="N195">
+        <v>1376.54</v>
+      </c>
+      <c r="P195">
+        <v>1621.32</v>
+      </c>
+      <c r="R195">
+        <v>1498.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A198" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A199" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" t="s">
+        <v>38</v>
+      </c>
+      <c r="C199" t="s">
+        <v>39</v>
+      </c>
+      <c r="D199" t="s">
+        <v>40</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>41</v>
+      </c>
+      <c r="B200">
+        <v>0.01</v>
+      </c>
+      <c r="C200">
+        <v>0.01</v>
+      </c>
+      <c r="D200">
+        <v>0.01</v>
+      </c>
+      <c r="E200">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>512</v>
+      </c>
+      <c r="C202">
+        <v>512</v>
+      </c>
+      <c r="D202">
+        <v>512</v>
+      </c>
+      <c r="E202">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>0.9</v>
+      </c>
+      <c r="C203">
+        <v>0.9</v>
+      </c>
+      <c r="D203">
+        <v>0.9</v>
+      </c>
+      <c r="E203">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>0.1</v>
+      </c>
+      <c r="C204">
+        <v>0.1</v>
+      </c>
+      <c r="D204">
+        <v>0.1</v>
+      </c>
+      <c r="E204">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>4</v>
       </c>
-      <c r="E171">
-        <v>4</v>
-      </c>
-      <c r="F171">
-        <v>2</v>
-      </c>
-      <c r="G171">
-        <v>2</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>30</v>
-      </c>
-      <c r="B172">
-        <v>500</v>
-      </c>
-      <c r="C172">
-        <v>2000</v>
-      </c>
-      <c r="D172">
-        <v>500</v>
-      </c>
-      <c r="E172">
-        <v>2000</v>
-      </c>
-      <c r="F172">
-        <v>500</v>
-      </c>
-      <c r="G172">
-        <v>2000</v>
-      </c>
-      <c r="H172">
-        <v>500</v>
-      </c>
-      <c r="I172">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173">
-        <v>2</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-      <c r="D173">
-        <v>2</v>
-      </c>
-      <c r="E173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174">
-        <v>768</v>
-      </c>
-      <c r="C174">
-        <v>768</v>
-      </c>
-      <c r="D174">
-        <v>768</v>
-      </c>
-      <c r="E174">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178">
-        <v>9.4209000000000001E-2</v>
-      </c>
-      <c r="C178">
-        <v>0.101634</v>
-      </c>
-      <c r="D178">
-        <v>8.9666999999999997E-2</v>
-      </c>
-      <c r="E178">
-        <v>9.3895000000000006E-2</v>
-      </c>
-      <c r="F178">
-        <v>8.3899000000000001E-2</v>
-      </c>
-      <c r="G178">
-        <v>8.5615999999999998E-2</v>
-      </c>
-      <c r="H178">
-        <v>7.8451999999999994E-2</v>
-      </c>
-      <c r="I178">
-        <v>7.9279000000000002E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B206">
+        <v>8.5382E-2</v>
+      </c>
+      <c r="C206">
+        <v>7.1833999999999995E-2</v>
+      </c>
+      <c r="D206">
+        <v>7.7038999999999996E-2</v>
+      </c>
+      <c r="E206">
+        <v>6.8845000000000003E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>5</v>
       </c>
-      <c r="B179">
-        <v>26.5228</v>
-      </c>
-      <c r="C179">
-        <v>29.862300000000001</v>
-      </c>
-      <c r="D179">
-        <v>24.677499999999998</v>
-      </c>
-      <c r="E179">
-        <v>26.961300000000001</v>
-      </c>
-      <c r="F179">
-        <v>23.149699999999999</v>
-      </c>
-      <c r="G179">
-        <v>24.204499999999999</v>
-      </c>
-      <c r="H179">
-        <v>21.783799999999999</v>
-      </c>
-      <c r="I179">
-        <v>22.1662</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B207">
+        <v>23.856400000000001</v>
+      </c>
+      <c r="C207">
+        <v>19.256499999999999</v>
+      </c>
+      <c r="D207">
+        <v>20.866599999999998</v>
+      </c>
+      <c r="E207">
+        <v>18.9819</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>6</v>
       </c>
-      <c r="B180">
-        <v>39.0657</v>
-      </c>
-      <c r="C180">
-        <v>45.787799999999997</v>
-      </c>
-      <c r="D180">
-        <v>35.710900000000002</v>
-      </c>
-      <c r="E180">
-        <v>40.053600000000003</v>
-      </c>
-      <c r="F180">
-        <v>33.563000000000002</v>
-      </c>
-      <c r="G180">
-        <v>35.194200000000002</v>
-      </c>
-      <c r="H180">
-        <v>31.761399999999998</v>
-      </c>
-      <c r="I180">
-        <v>32.905000000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B208">
+        <v>34.802300000000002</v>
+      </c>
+      <c r="C208">
+        <v>27.964400000000001</v>
+      </c>
+      <c r="D208">
+        <v>29.981200000000001</v>
+      </c>
+      <c r="E208">
+        <v>27.3687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>7</v>
       </c>
-      <c r="C181">
-        <v>3431.33</v>
-      </c>
-      <c r="E181">
-        <v>3306.09</v>
-      </c>
-      <c r="G181">
-        <v>3600.74</v>
-      </c>
-      <c r="I181">
-        <v>3219.91</v>
+      <c r="B209">
+        <v>599.86</v>
+      </c>
+      <c r="C209">
+        <v>1316.78</v>
+      </c>
+      <c r="D209">
+        <v>1528.31</v>
+      </c>
+      <c r="E209">
+        <v>1329.64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A198:E198"/>
     <mergeCell ref="A170:D170"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A83:D83"/>
@@ -5890,8 +6991,6 @@
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739BBD99-721C-4A6A-AB25-276E68F1F825}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0A773-7E99-4082-8B74-BA464AF9A932}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="720" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="45">
   <si>
     <t>layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K191" sqref="K191"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6136,7 +6140,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -6180,12 +6184,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -6198,6 +6202,24 @@
       <c r="D179">
         <v>8.2031000000000007E-2</v>
       </c>
+      <c r="E179">
+        <v>8.3431000000000005E-2</v>
+      </c>
+      <c r="F179">
+        <v>8.3113999999999993E-2</v>
+      </c>
+      <c r="G179">
+        <v>8.7593000000000004E-2</v>
+      </c>
+      <c r="H179">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="I179">
+        <v>9.0426999999999993E-2</v>
+      </c>
+      <c r="J179">
+        <v>8.9426000000000005E-2</v>
+      </c>
       <c r="K179">
         <v>9.1977000000000003E-2</v>
       </c>
@@ -6211,7 +6233,7 @@
         <v>9.2814999999999995E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -6224,6 +6246,24 @@
       <c r="D180">
         <v>22.0884</v>
       </c>
+      <c r="E180">
+        <v>23.118300000000001</v>
+      </c>
+      <c r="F180">
+        <v>23.2148</v>
+      </c>
+      <c r="G180">
+        <v>24.187000000000001</v>
+      </c>
+      <c r="H180">
+        <v>24.3127</v>
+      </c>
+      <c r="I180">
+        <v>24.8523</v>
+      </c>
+      <c r="J180">
+        <v>25.216100000000001</v>
+      </c>
       <c r="K180">
         <v>25.409700000000001</v>
       </c>
@@ -6237,7 +6277,7 @@
         <v>26.741900000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -6250,6 +6290,24 @@
       <c r="D181">
         <v>32.101799999999997</v>
       </c>
+      <c r="E181">
+        <v>33.647100000000002</v>
+      </c>
+      <c r="F181">
+        <v>33.742600000000003</v>
+      </c>
+      <c r="G181">
+        <v>34.996899999999997</v>
+      </c>
+      <c r="H181">
+        <v>35.312199999999997</v>
+      </c>
+      <c r="I181">
+        <v>35.918900000000001</v>
+      </c>
+      <c r="J181">
+        <v>36.692799999999998</v>
+      </c>
       <c r="K181">
         <v>36.8172</v>
       </c>
@@ -6263,7 +6321,7 @@
         <v>39.378500000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -6273,6 +6331,15 @@
       <c r="D182">
         <v>1397.83</v>
       </c>
+      <c r="F182">
+        <v>1386.16</v>
+      </c>
+      <c r="H182">
+        <v>1396.22</v>
+      </c>
+      <c r="J182">
+        <v>1577.1107</v>
+      </c>
       <c r="L182">
         <v>1612.22</v>
       </c>
@@ -6280,7 +6347,7 @@
         <v>1594.56</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B184">
         <v>7</v>
       </c>
@@ -6332,8 +6399,26 @@
       <c r="R184">
         <v>144</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S184">
+        <v>288</v>
+      </c>
+      <c r="T184">
+        <v>288</v>
+      </c>
+      <c r="U184">
+        <v>576</v>
+      </c>
+      <c r="V184">
+        <v>576</v>
+      </c>
+      <c r="W184">
+        <v>864</v>
+      </c>
+      <c r="X184">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B185">
         <v>0.08</v>
       </c>
@@ -6379,8 +6464,26 @@
       <c r="P185">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>0.08</v>
+      </c>
+      <c r="R185">
+        <v>0.08</v>
+      </c>
+      <c r="S185">
+        <v>0.08</v>
+      </c>
+      <c r="T185">
+        <v>0.08</v>
+      </c>
+      <c r="U185">
+        <v>0.08</v>
+      </c>
+      <c r="V185">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B186">
         <v>1000</v>
       </c>
@@ -6426,8 +6529,26 @@
       <c r="P186">
         <v>2000</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>2000</v>
+      </c>
+      <c r="R186">
+        <v>2000</v>
+      </c>
+      <c r="S186">
+        <v>2000</v>
+      </c>
+      <c r="T186">
+        <v>2000</v>
+      </c>
+      <c r="U186">
+        <v>2000</v>
+      </c>
+      <c r="V186">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B187">
         <v>2</v>
       </c>
@@ -6464,14 +6585,35 @@
       <c r="M187">
         <v>2</v>
       </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
       <c r="O187">
         <v>2</v>
       </c>
       <c r="P187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>2</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B188">
         <v>512</v>
       </c>
@@ -6508,14 +6650,35 @@
       <c r="M188">
         <v>512</v>
       </c>
+      <c r="N188">
+        <v>512</v>
+      </c>
       <c r="O188">
         <v>512</v>
       </c>
       <c r="P188">
         <v>512</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>512</v>
+      </c>
+      <c r="R188">
+        <v>512</v>
+      </c>
+      <c r="S188">
+        <v>512</v>
+      </c>
+      <c r="T188">
+        <v>512</v>
+      </c>
+      <c r="U188">
+        <v>512</v>
+      </c>
+      <c r="V188">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B189">
         <v>0.9</v>
       </c>
@@ -6552,14 +6715,35 @@
       <c r="M189">
         <v>0.9</v>
       </c>
+      <c r="N189">
+        <v>0.9</v>
+      </c>
       <c r="O189">
         <v>0.9</v>
       </c>
       <c r="P189">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>0.9</v>
+      </c>
+      <c r="R189">
+        <v>0.9</v>
+      </c>
+      <c r="S189">
+        <v>0.9</v>
+      </c>
+      <c r="T189">
+        <v>0.9</v>
+      </c>
+      <c r="U189">
+        <v>0.9</v>
+      </c>
+      <c r="V189">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B190">
         <v>0.1</v>
       </c>
@@ -6596,14 +6780,35 @@
       <c r="M190">
         <v>0.1</v>
       </c>
+      <c r="N190">
+        <v>0.1</v>
+      </c>
       <c r="O190">
         <v>0.1</v>
       </c>
       <c r="P190">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>0.1</v>
+      </c>
+      <c r="R190">
+        <v>0.1</v>
+      </c>
+      <c r="S190">
+        <v>0.1</v>
+      </c>
+      <c r="T190">
+        <v>0.1</v>
+      </c>
+      <c r="U190">
+        <v>0.1</v>
+      </c>
+      <c r="V190">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B192">
         <v>9.3340999999999993E-2</v>
       </c>
@@ -6650,13 +6855,25 @@
         <v>0.115346</v>
       </c>
       <c r="Q192">
-        <v>0.137901</v>
+        <v>0.121056</v>
       </c>
       <c r="R192">
-        <v>0.14027200000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.12626999999999999</v>
+      </c>
+      <c r="S192">
+        <v>0.116091</v>
+      </c>
+      <c r="T192">
+        <v>0.11731999999999999</v>
+      </c>
+      <c r="U192">
+        <v>0.114208</v>
+      </c>
+      <c r="V192">
+        <v>0.12248199999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B193">
         <v>26.228300000000001</v>
       </c>
@@ -6703,13 +6920,25 @@
         <v>32.6417</v>
       </c>
       <c r="Q193">
-        <v>38.921900000000001</v>
+        <v>34.517099999999999</v>
       </c>
       <c r="R193">
-        <v>39.606900000000003</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+        <v>36.180700000000002</v>
+      </c>
+      <c r="S193">
+        <v>32.823999999999998</v>
+      </c>
+      <c r="T193">
+        <v>33.632100000000001</v>
+      </c>
+      <c r="U193">
+        <v>33.846400000000003</v>
+      </c>
+      <c r="V193">
+        <v>35.2971</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B194">
         <v>38.394799999999996</v>
       </c>
@@ -6756,13 +6985,25 @@
         <v>49.215899999999998</v>
       </c>
       <c r="Q194">
-        <v>60.0291</v>
+        <v>53.688699999999997</v>
       </c>
       <c r="R194">
-        <v>61.491900000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+        <v>57.359299999999998</v>
+      </c>
+      <c r="S194">
+        <v>50.8765</v>
+      </c>
+      <c r="T194">
+        <v>52.0336</v>
+      </c>
+      <c r="U194">
+        <v>54.234299999999998</v>
+      </c>
+      <c r="V194">
+        <v>56.186900000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C195">
         <v>1602.47</v>
       </c>
@@ -6788,10 +7029,16 @@
         <v>1621.32</v>
       </c>
       <c r="R195">
-        <v>1498.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1127.53</v>
+      </c>
+      <c r="T195">
+        <v>1284.8399999999999</v>
+      </c>
+      <c r="V195">
+        <v>830.95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="32" t="s">
         <v>42</v>
       </c>
@@ -6800,7 +7047,7 @@
       <c r="D198" s="32"/>
       <c r="E198" s="32"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="31" t="s">
         <v>37</v>
       </c>
@@ -6816,174 +7063,573 @@
       <c r="E199" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="F199" t="s">
+        <v>38</v>
+      </c>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199" t="s">
+        <v>40</v>
+      </c>
+      <c r="I199" t="s">
+        <v>38</v>
+      </c>
+      <c r="J199" t="s">
+        <v>39</v>
+      </c>
+      <c r="K199" t="s">
+        <v>40</v>
+      </c>
+      <c r="L199" t="s">
+        <v>38</v>
+      </c>
+      <c r="M199" t="s">
+        <v>39</v>
+      </c>
+      <c r="N199" t="s">
+        <v>40</v>
+      </c>
+      <c r="O199" t="s">
+        <v>38</v>
+      </c>
+      <c r="P199" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A200" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>144</v>
+      </c>
+      <c r="G200">
+        <v>144</v>
+      </c>
+      <c r="H200">
+        <v>144</v>
+      </c>
+      <c r="I200">
+        <v>288</v>
+      </c>
+      <c r="J200">
+        <v>288</v>
+      </c>
+      <c r="K200">
+        <v>288</v>
+      </c>
+      <c r="L200">
+        <v>576</v>
+      </c>
+      <c r="M200">
+        <v>576</v>
+      </c>
+      <c r="N200">
+        <v>576</v>
+      </c>
+      <c r="O200">
+        <v>864</v>
+      </c>
+      <c r="P200">
+        <v>864</v>
+      </c>
+      <c r="Q200">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>41</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <v>0.01</v>
       </c>
-      <c r="C200">
+      <c r="C201">
         <v>0.01</v>
       </c>
-      <c r="D200">
+      <c r="D201">
         <v>0.01</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="F201">
+        <v>0.01</v>
+      </c>
+      <c r="G201">
+        <v>0.01</v>
+      </c>
+      <c r="H201">
+        <v>0.01</v>
+      </c>
+      <c r="I201">
+        <v>0.01</v>
+      </c>
+      <c r="J201">
+        <v>0.01</v>
+      </c>
+      <c r="K201">
+        <v>0.01</v>
+      </c>
+      <c r="L201">
+        <v>0.01</v>
+      </c>
+      <c r="M201">
+        <v>0.01</v>
+      </c>
+      <c r="N201">
+        <v>0.01</v>
+      </c>
+      <c r="O201">
+        <v>0.01</v>
+      </c>
+      <c r="P201">
+        <v>0.01</v>
+      </c>
+      <c r="Q201">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>0</v>
       </c>
-      <c r="B201">
-        <v>2</v>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
+        <v>2</v>
+      </c>
+      <c r="P202">
+        <v>2</v>
+      </c>
+      <c r="Q202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>1</v>
       </c>
-      <c r="B202">
-        <v>512</v>
-      </c>
-      <c r="C202">
-        <v>512</v>
-      </c>
-      <c r="D202">
-        <v>512</v>
-      </c>
-      <c r="E202">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B203">
-        <v>0.9</v>
+        <v>512</v>
       </c>
       <c r="C203">
-        <v>0.9</v>
+        <v>512</v>
       </c>
       <c r="D203">
-        <v>0.9</v>
+        <v>512</v>
       </c>
       <c r="E203">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>3</v>
+        <v>512</v>
+      </c>
+      <c r="F203">
+        <v>512</v>
+      </c>
+      <c r="G203">
+        <v>512</v>
+      </c>
+      <c r="H203">
+        <v>512</v>
+      </c>
+      <c r="I203">
+        <v>512</v>
+      </c>
+      <c r="J203">
+        <v>512</v>
+      </c>
+      <c r="K203">
+        <v>512</v>
+      </c>
+      <c r="L203">
+        <v>512</v>
+      </c>
+      <c r="M203">
+        <v>512</v>
+      </c>
+      <c r="N203">
+        <v>512</v>
+      </c>
+      <c r="O203">
+        <v>512</v>
+      </c>
+      <c r="P203">
+        <v>512</v>
+      </c>
+      <c r="Q203">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B204">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C204">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D204">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E204">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="F204">
+        <v>0.9</v>
+      </c>
+      <c r="G204">
+        <v>0.9</v>
+      </c>
+      <c r="H204">
+        <v>0.9</v>
+      </c>
+      <c r="I204">
+        <v>0.9</v>
+      </c>
+      <c r="J204">
+        <v>0.9</v>
+      </c>
+      <c r="K204">
+        <v>0.9</v>
+      </c>
+      <c r="L204">
+        <v>0.9</v>
+      </c>
+      <c r="M204">
+        <v>0.9</v>
+      </c>
+      <c r="N204">
+        <v>0.9</v>
+      </c>
+      <c r="O204">
+        <v>0.9</v>
+      </c>
+      <c r="P204">
+        <v>0.9</v>
+      </c>
+      <c r="Q204">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>0.1</v>
+      </c>
+      <c r="C205">
+        <v>0.1</v>
+      </c>
+      <c r="D205">
+        <v>0.1</v>
+      </c>
+      <c r="E205">
+        <v>0.1</v>
+      </c>
+      <c r="F205">
+        <v>0.1</v>
+      </c>
+      <c r="G205">
+        <v>0.1</v>
+      </c>
+      <c r="H205">
+        <v>0.1</v>
+      </c>
+      <c r="I205">
+        <v>0.1</v>
+      </c>
+      <c r="J205">
+        <v>0.1</v>
+      </c>
+      <c r="K205">
+        <v>0.1</v>
+      </c>
+      <c r="L205">
+        <v>0.1</v>
+      </c>
+      <c r="M205">
+        <v>0.1</v>
+      </c>
+      <c r="N205">
+        <v>0.1</v>
+      </c>
+      <c r="O205">
+        <v>0.1</v>
+      </c>
+      <c r="P205">
+        <v>0.1</v>
+      </c>
+      <c r="Q205">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>4</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <v>8.5382E-2</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <v>7.1833999999999995E-2</v>
       </c>
-      <c r="D206">
+      <c r="D207">
         <v>7.7038999999999996E-2</v>
       </c>
-      <c r="E206">
+      <c r="E207">
         <v>6.8845000000000003E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="F207">
+        <v>0.13033600000000001</v>
+      </c>
+      <c r="G207">
+        <v>0.12792799999999999</v>
+      </c>
+      <c r="H207">
+        <v>0.259961</v>
+      </c>
+      <c r="I207">
+        <v>0.115273</v>
+      </c>
+      <c r="J207">
+        <v>0.120134</v>
+      </c>
+      <c r="K207">
+        <v>0.12571599999999999</v>
+      </c>
+      <c r="M207">
+        <v>0.118286</v>
+      </c>
+      <c r="N207">
+        <v>0.12310500000000001</v>
+      </c>
+      <c r="P207">
+        <v>0.136411</v>
+      </c>
+      <c r="Q207">
+        <v>0.13596900000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>5</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>23.856400000000001</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>19.256499999999999</v>
       </c>
-      <c r="D207">
+      <c r="D208">
         <v>20.866599999999998</v>
       </c>
-      <c r="E207">
+      <c r="E208">
         <v>18.9819</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="F208">
+        <v>35.631399999999999</v>
+      </c>
+      <c r="G208">
+        <v>37.265700000000002</v>
+      </c>
+      <c r="H208">
+        <v>56.405299999999997</v>
+      </c>
+      <c r="I208">
+        <v>32.386699999999998</v>
+      </c>
+      <c r="J208">
+        <v>34.113900000000001</v>
+      </c>
+      <c r="K208">
+        <v>34.389400000000002</v>
+      </c>
+      <c r="M208">
+        <v>35.221899999999998</v>
+      </c>
+      <c r="N208">
+        <v>35.367699999999999</v>
+      </c>
+      <c r="P208">
+        <v>39.137999999999998</v>
+      </c>
+      <c r="Q208">
+        <v>37.801400000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>6</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>34.802300000000002</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>27.964400000000001</v>
       </c>
-      <c r="D208">
+      <c r="D209">
         <v>29.981200000000001</v>
       </c>
-      <c r="E208">
+      <c r="E209">
         <v>27.3687</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="F209">
+        <v>55.497399999999999</v>
+      </c>
+      <c r="G209">
+        <v>56.636299999999999</v>
+      </c>
+      <c r="H209">
+        <v>78.468800000000002</v>
+      </c>
+      <c r="I209">
+        <v>50.572800000000001</v>
+      </c>
+      <c r="J209">
+        <v>52.689799999999998</v>
+      </c>
+      <c r="K209">
+        <v>52.4923</v>
+      </c>
+      <c r="M209">
+        <v>54.264499999999998</v>
+      </c>
+      <c r="N209">
+        <v>53.610700000000001</v>
+      </c>
+      <c r="P209">
+        <v>60.838200000000001</v>
+      </c>
+      <c r="Q209">
+        <v>55.493499999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>7</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>599.86</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>1316.78</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <v>1528.31</v>
       </c>
-      <c r="E209">
+      <c r="E210">
         <v>1329.64</v>
       </c>
+      <c r="F210">
+        <v>453.09</v>
+      </c>
+      <c r="G210">
+        <v>964.27</v>
+      </c>
+      <c r="H210">
+        <v>1100.51</v>
+      </c>
+      <c r="I210">
+        <v>450.24</v>
+      </c>
+      <c r="J210">
+        <v>975.06</v>
+      </c>
+      <c r="K210">
+        <v>1087.68</v>
+      </c>
+      <c r="M210">
+        <v>718.69010000000003</v>
+      </c>
+      <c r="N210">
+        <v>826.63</v>
+      </c>
+      <c r="P210">
+        <v>492.14</v>
+      </c>
+      <c r="Q210">
+        <v>559.27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A213" s="31"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A131:D131"/>
+  <mergeCells count="16">
+    <mergeCell ref="A212:E212"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A83:D83"/>
@@ -6992,6 +7638,13 @@
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A131:D131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/tiaocan.xlsx
+++ b/results/tiaocan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0A773-7E99-4082-8B74-BA464AF9A932}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188FF584-4FD2-4CB7-A799-B9FBA5CCC125}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="720" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="600" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="45">
   <si>
     <t>layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7612,24 +7612,188 @@
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="31"/>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C214">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D214">
+        <v>1E-3</v>
+      </c>
+      <c r="E214">
+        <v>1E-3</v>
+      </c>
+      <c r="F214">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>512</v>
+      </c>
+      <c r="C216">
+        <v>512</v>
+      </c>
+      <c r="D216">
+        <v>512</v>
+      </c>
+      <c r="E216">
+        <v>512</v>
+      </c>
+      <c r="F216">
+        <v>512</v>
+      </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
+      <c r="B217">
+        <v>0.9</v>
+      </c>
+      <c r="C217">
+        <v>0.9</v>
+      </c>
+      <c r="D217">
+        <v>0.9</v>
+      </c>
+      <c r="E217">
+        <v>0.9</v>
+      </c>
+      <c r="F217">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>0.1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
+      <c r="B219">
+        <v>8.5001999999999994E-2</v>
+      </c>
+      <c r="C219">
+        <v>6.9070000000000006E-2</v>
+      </c>
+      <c r="D219">
+        <v>9.6185000000000007E-2</v>
+      </c>
+      <c r="E219">
+        <v>7.3632000000000003E-2</v>
+      </c>
+      <c r="F219">
+        <v>9.2624999999999999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>23.849699999999999</v>
+      </c>
+      <c r="C220">
+        <v>18.881799999999998</v>
+      </c>
+      <c r="D220">
+        <v>26.765899999999998</v>
+      </c>
+      <c r="E220">
+        <v>19.616700000000002</v>
+      </c>
+      <c r="F220">
+        <v>24.937999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>34.875900000000001</v>
+      </c>
+      <c r="C221">
+        <v>27.3337</v>
+      </c>
+      <c r="D221">
+        <v>39.749099999999999</v>
+      </c>
+      <c r="E221">
+        <v>28.379200000000001</v>
+      </c>
+      <c r="F221">
+        <v>35.185299999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>1060.98</v>
+      </c>
+      <c r="D222">
+        <v>1089.68</v>
+      </c>
+      <c r="E222">
+        <v>2067.1</v>
+      </c>
+      <c r="F222">
+        <v>2049.6799999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A212:E212"/>
+  <mergeCells count="15">
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A83:D83"/>
@@ -7638,13 +7802,6 @@
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A131:D131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
